--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_21_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2865577.906385386</v>
+        <v>-2867183.78191579</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8773452.701649604</v>
+        <v>8773452.701649606</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.6475273934649</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>234.1865775009919</v>
+        <v>179.1894488039014</v>
       </c>
       <c r="D11" t="n">
         <v>223.5967273506673</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.8440558022461</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7897314716957</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>281.4204412852648</v>
       </c>
       <c r="H11" t="n">
-        <v>179.7541375993905</v>
+        <v>179.7541375993904</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>28.10329363521612</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>218.1546544473973</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>255.1516243860379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>35.44686937985165</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>41.62218471830005</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>32.67996361838096</v>
       </c>
       <c r="E12" t="n">
-        <v>26.55876618538528</v>
+        <v>26.55876618538525</v>
       </c>
       <c r="F12" t="n">
-        <v>13.98289812336822</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>4.761220658731252</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.275709104097473</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>12.80964296121758</v>
+        <v>12.80964296121755</v>
       </c>
       <c r="T12" t="n">
-        <v>63.0485562078228</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U12" t="n">
-        <v>94.75664792711285</v>
+        <v>94.75664792711282</v>
       </c>
       <c r="V12" t="n">
-        <v>101.7142728794096</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>167.5443990824169</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>74.68667093346178</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>74.59638150728867</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.74566591192163</v>
+        <v>48.74566591192161</v>
       </c>
       <c r="C13" t="n">
-        <v>36.16050682861217</v>
+        <v>36.16050682861214</v>
       </c>
       <c r="D13" t="n">
-        <v>17.52915874819669</v>
+        <v>17.52915874819666</v>
       </c>
       <c r="E13" t="n">
-        <v>15.34764837655351</v>
+        <v>15.34764837655348</v>
       </c>
       <c r="F13" t="n">
-        <v>14.33473375291558</v>
+        <v>14.33473375291555</v>
       </c>
       <c r="G13" t="n">
-        <v>35.65048383636897</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H13" t="n">
-        <v>19.9900467417103</v>
+        <v>19.99004674171027</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.06594631034029</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>202.1596393076441</v>
+        <v>71.07332503762838</v>
       </c>
       <c r="T13" t="n">
-        <v>91.50050071758547</v>
+        <v>91.50050071758544</v>
       </c>
       <c r="U13" t="n">
-        <v>215.9188171053705</v>
+        <v>155.1643051999984</v>
       </c>
       <c r="V13" t="n">
         <v>121.0513290538123</v>
@@ -1591,10 +1591,10 @@
         <v>155.4366840665753</v>
       </c>
       <c r="X13" t="n">
-        <v>94.62334111902149</v>
+        <v>94.62334111902146</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.49833908207913</v>
+        <v>87.4983390820791</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.6475273934649</v>
+        <v>251.647527393465</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>234.186577500992</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.5967273506674</v>
       </c>
       <c r="E14" t="n">
-        <v>250.8440558022461</v>
+        <v>52.31701066859687</v>
       </c>
       <c r="F14" t="n">
-        <v>275.7897314716957</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>281.4204412852648</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>14.22031640604283</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>79.77012426485223</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>120.0356600810325</v>
       </c>
       <c r="V14" t="n">
-        <v>112.7381319130974</v>
+        <v>196.6659442001193</v>
       </c>
       <c r="W14" t="n">
-        <v>218.1546544473973</v>
+        <v>218.1546544473974</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,22 +1686,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.62218471830008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>16.35875129462318</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.9828981233683</v>
       </c>
       <c r="G15" t="n">
-        <v>4.761220658731252</v>
+        <v>4.761220658731338</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.275709104097459</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12.80964296121757</v>
+        <v>12.80964296121766</v>
       </c>
       <c r="T15" t="n">
-        <v>63.0485562078228</v>
+        <v>63.04855620782288</v>
       </c>
       <c r="U15" t="n">
-        <v>94.75664792711285</v>
+        <v>182.2669962048782</v>
       </c>
       <c r="V15" t="n">
-        <v>101.7142728794096</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>120.6086688909039</v>
+        <v>120.608668890904</v>
       </c>
       <c r="X15" t="n">
-        <v>121.6224011249756</v>
+        <v>74.6866709334619</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.59638150728878</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.74566591192163</v>
+        <v>48.74566591192172</v>
       </c>
       <c r="C16" t="n">
-        <v>36.16050682861217</v>
+        <v>36.16050682861226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>17.52915874819678</v>
       </c>
       <c r="E16" t="n">
-        <v>15.34764837655351</v>
+        <v>15.34764837655359</v>
       </c>
       <c r="F16" t="n">
-        <v>14.33473375291558</v>
+        <v>14.33473375291567</v>
       </c>
       <c r="G16" t="n">
-        <v>35.65048383636897</v>
+        <v>35.65048383636906</v>
       </c>
       <c r="H16" t="n">
-        <v>19.9900467417103</v>
+        <v>19.99004674171039</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>127.1392713479683</v>
+        <v>71.07332503762848</v>
       </c>
       <c r="T16" t="n">
-        <v>91.50050071758547</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U16" t="n">
-        <v>155.1643051999985</v>
+        <v>215.9188171053696</v>
       </c>
       <c r="V16" t="n">
-        <v>121.0513290538123</v>
+        <v>121.0513290538124</v>
       </c>
       <c r="W16" t="n">
-        <v>155.4366840665753</v>
+        <v>155.4366840665754</v>
       </c>
       <c r="X16" t="n">
-        <v>94.62334111902149</v>
+        <v>94.62334111902157</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.49833908207913</v>
+        <v>87.49833908207921</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.8013995851669</v>
+        <v>144.8013995851667</v>
       </c>
       <c r="C17" t="n">
-        <v>127.3404496926939</v>
+        <v>127.3404496926937</v>
       </c>
       <c r="D17" t="n">
-        <v>116.7505995423693</v>
+        <v>116.7505995423691</v>
       </c>
       <c r="E17" t="n">
-        <v>143.9979279939481</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F17" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G17" t="n">
-        <v>174.5743134769668</v>
+        <v>121.4305215629504</v>
       </c>
       <c r="H17" t="n">
-        <v>72.90800979109244</v>
+        <v>72.90800979109224</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.18953227273443</v>
+        <v>13.18953227273423</v>
       </c>
       <c r="V17" t="n">
-        <v>36.676024477803</v>
+        <v>89.81981639182101</v>
       </c>
       <c r="W17" t="n">
-        <v>111.3085266390993</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X17" t="n">
-        <v>131.7986586001553</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.3054965777399</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1932,13 +1932,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>7.275709104097459</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>182.4621111766806</v>
+        <v>13.76254108260571</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>114.3188939889509</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2053,16 +2053,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>178.0856631564606</v>
       </c>
       <c r="U19" t="n">
-        <v>59.15701944953285</v>
+        <v>48.31817739170022</v>
       </c>
       <c r="V19" t="n">
-        <v>14.2052012455143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>48.5905562582771</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.8013995851669</v>
+        <v>144.8013995851667</v>
       </c>
       <c r="C20" t="n">
-        <v>74.19665777867549</v>
+        <v>127.3404496926937</v>
       </c>
       <c r="D20" t="n">
-        <v>116.7505995423693</v>
+        <v>116.7505995423691</v>
       </c>
       <c r="E20" t="n">
-        <v>143.9979279939481</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F20" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G20" t="n">
-        <v>174.5743134769668</v>
+        <v>174.5743134769666</v>
       </c>
       <c r="H20" t="n">
-        <v>72.90800979109244</v>
+        <v>19.76421787707538</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.18953227273443</v>
+        <v>13.18953227273423</v>
       </c>
       <c r="V20" t="n">
-        <v>89.81981639182121</v>
+        <v>89.81981639182101</v>
       </c>
       <c r="W20" t="n">
-        <v>111.3085266390993</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X20" t="n">
-        <v>131.7986586001553</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.3054965777399</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.78740528786003</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.89022697185283</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.275709104097459</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>149.6888249007708</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>182.4621111766806</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>152.1637327215563</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.5868149876011</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.31817739170042</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V22" t="n">
-        <v>14.2052012455143</v>
+        <v>190.2168003540969</v>
       </c>
       <c r="W22" t="n">
-        <v>48.5905562582773</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.8013995851669</v>
+        <v>144.8013995851667</v>
       </c>
       <c r="C23" t="n">
-        <v>127.3404496926939</v>
+        <v>127.3404496926937</v>
       </c>
       <c r="D23" t="n">
-        <v>116.7505995423693</v>
+        <v>116.7505995423691</v>
       </c>
       <c r="E23" t="n">
-        <v>143.9979279939481</v>
+        <v>143.9979279939479</v>
       </c>
       <c r="F23" t="n">
-        <v>168.9436036633977</v>
+        <v>168.9436036633975</v>
       </c>
       <c r="G23" t="n">
-        <v>174.5743134769668</v>
+        <v>174.5743134769666</v>
       </c>
       <c r="H23" t="n">
-        <v>72.90800979109244</v>
+        <v>72.90800979109224</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.18953227273443</v>
+        <v>13.18953227273423</v>
       </c>
       <c r="V23" t="n">
-        <v>89.81981639182121</v>
+        <v>89.81981639182101</v>
       </c>
       <c r="W23" t="n">
-        <v>111.3085266390993</v>
+        <v>111.3085266390991</v>
       </c>
       <c r="X23" t="n">
-        <v>131.7986586001553</v>
+        <v>131.7986586001551</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.3054965777399</v>
+        <v>148.3054965777397</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.89022697185282</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.275709104097459</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U24" t="n">
-        <v>201.2696911937777</v>
+        <v>123.752852405213</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2506194700141</v>
+        <v>153.1080658667852</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2052012455143</v>
+        <v>14.2052012455141</v>
       </c>
       <c r="W25" t="n">
-        <v>83.44771866421242</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>275.0842422639636</v>
       </c>
       <c r="F26" t="n">
-        <v>300.0299179334133</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G26" t="n">
-        <v>305.6606277469823</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H26" t="n">
         <v>203.994324061108</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46050286776025</v>
+        <v>38.46050286776023</v>
       </c>
       <c r="T26" t="n">
-        <v>104.0103107265697</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U26" t="n">
-        <v>144.27584654275</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V26" t="n">
-        <v>220.9061306618368</v>
+        <v>220.9061306618367</v>
       </c>
       <c r="W26" t="n">
-        <v>242.3948409091149</v>
+        <v>242.3948409091148</v>
       </c>
       <c r="X26" t="n">
-        <v>262.8849728701709</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y26" t="n">
         <v>279.3918108477554</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.98585237363915</v>
+        <v>72.98585237363912</v>
       </c>
       <c r="C28" t="n">
-        <v>60.40069329032968</v>
+        <v>60.40069329032966</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76934520991421</v>
+        <v>41.76934520991418</v>
       </c>
       <c r="E28" t="n">
-        <v>39.58783483827102</v>
+        <v>39.58783483827099</v>
       </c>
       <c r="F28" t="n">
-        <v>38.5749202146331</v>
+        <v>38.57492021463307</v>
       </c>
       <c r="G28" t="n">
-        <v>59.89067029808648</v>
+        <v>59.89067029808646</v>
       </c>
       <c r="H28" t="n">
-        <v>44.23023320342782</v>
+        <v>44.23023320342779</v>
       </c>
       <c r="I28" t="n">
-        <v>10.88769637476728</v>
+        <v>10.88769637476725</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>14.05471381652014</v>
+        <v>14.05471381652011</v>
       </c>
       <c r="S28" t="n">
-        <v>95.31351149934591</v>
+        <v>95.31351149934588</v>
       </c>
       <c r="T28" t="n">
         <v>115.740687179303</v>
@@ -2770,10 +2770,10 @@
         <v>179.404491661716</v>
       </c>
       <c r="V28" t="n">
-        <v>145.2915155155299</v>
+        <v>145.2915155155298</v>
       </c>
       <c r="W28" t="n">
-        <v>179.6768705282929</v>
+        <v>179.6768705282928</v>
       </c>
       <c r="X28" t="n">
         <v>118.863527580739</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>275.8877138551824</v>
+        <v>275.8877138551823</v>
       </c>
       <c r="C29" t="n">
-        <v>258.4267639627094</v>
+        <v>258.4267639627093</v>
       </c>
       <c r="D29" t="n">
-        <v>247.8369138123848</v>
+        <v>247.8369138123847</v>
       </c>
       <c r="E29" t="n">
-        <v>275.0842422639636</v>
+        <v>275.0842422639635</v>
       </c>
       <c r="F29" t="n">
-        <v>300.0299179334133</v>
+        <v>300.0299179334132</v>
       </c>
       <c r="G29" t="n">
-        <v>305.6606277469823</v>
+        <v>305.6606277469822</v>
       </c>
       <c r="H29" t="n">
-        <v>203.994324061108</v>
+        <v>203.9943240611079</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46050286776025</v>
+        <v>38.46050286776016</v>
       </c>
       <c r="T29" t="n">
-        <v>104.0103107265697</v>
+        <v>104.0103107265696</v>
       </c>
       <c r="U29" t="n">
-        <v>144.27584654275</v>
+        <v>144.2758465427499</v>
       </c>
       <c r="V29" t="n">
-        <v>220.9061306618368</v>
+        <v>220.9061306618366</v>
       </c>
       <c r="W29" t="n">
-        <v>242.3948409091149</v>
+        <v>242.3948409091147</v>
       </c>
       <c r="X29" t="n">
-        <v>262.8849728701709</v>
+        <v>262.8849728701708</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.3918108477554</v>
+        <v>279.3918108477553</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.98585237363915</v>
+        <v>72.98585237363905</v>
       </c>
       <c r="C31" t="n">
-        <v>60.40069329032968</v>
+        <v>60.40069329032958</v>
       </c>
       <c r="D31" t="n">
-        <v>41.76934520991421</v>
+        <v>41.76934520991411</v>
       </c>
       <c r="E31" t="n">
-        <v>39.58783483827102</v>
+        <v>39.58783483827092</v>
       </c>
       <c r="F31" t="n">
-        <v>38.5749202146331</v>
+        <v>38.574920214633</v>
       </c>
       <c r="G31" t="n">
-        <v>59.89067029808648</v>
+        <v>59.89067029808638</v>
       </c>
       <c r="H31" t="n">
-        <v>44.23023320342782</v>
+        <v>44.23023320342772</v>
       </c>
       <c r="I31" t="n">
-        <v>10.88769637476728</v>
+        <v>10.88769637476718</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>14.05471381652014</v>
+        <v>14.05471381652004</v>
       </c>
       <c r="S31" t="n">
-        <v>95.31351149934591</v>
+        <v>95.31351149934582</v>
       </c>
       <c r="T31" t="n">
-        <v>115.740687179303</v>
+        <v>115.7406871793029</v>
       </c>
       <c r="U31" t="n">
-        <v>179.404491661716</v>
+        <v>179.4044916617159</v>
       </c>
       <c r="V31" t="n">
-        <v>145.2915155155299</v>
+        <v>145.2915155155297</v>
       </c>
       <c r="W31" t="n">
-        <v>179.6768705282929</v>
+        <v>179.6768705282927</v>
       </c>
       <c r="X31" t="n">
-        <v>118.863527580739</v>
+        <v>118.8635275807389</v>
       </c>
       <c r="Y31" t="n">
-        <v>111.7385255437966</v>
+        <v>111.7385255437965</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>275.8877138551824</v>
+        <v>275.8877138551823</v>
       </c>
       <c r="C32" t="n">
         <v>258.4267639627093</v>
       </c>
       <c r="D32" t="n">
-        <v>247.8369138123848</v>
+        <v>247.8369138123847</v>
       </c>
       <c r="E32" t="n">
-        <v>275.0842422639636</v>
+        <v>275.0842422639635</v>
       </c>
       <c r="F32" t="n">
         <v>300.0299179334132</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.4605028677602</v>
+        <v>38.46050286776014</v>
       </c>
       <c r="T32" t="n">
-        <v>104.0103107265696</v>
+        <v>104.0103107265695</v>
       </c>
       <c r="U32" t="n">
         <v>144.2758465427499</v>
       </c>
       <c r="V32" t="n">
-        <v>220.9061306618367</v>
+        <v>220.9061306618366</v>
       </c>
       <c r="W32" t="n">
-        <v>242.3948409091148</v>
+        <v>242.3948409091147</v>
       </c>
       <c r="X32" t="n">
         <v>262.8849728701708</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.3918108477554</v>
+        <v>279.3918108477553</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>72.98585237363909</v>
+        <v>72.98585237363903</v>
       </c>
       <c r="C34" t="n">
-        <v>60.40069329032963</v>
+        <v>60.40069329032957</v>
       </c>
       <c r="D34" t="n">
-        <v>41.76934520991415</v>
+        <v>41.76934520991409</v>
       </c>
       <c r="E34" t="n">
-        <v>39.58783483827096</v>
+        <v>39.58783483827091</v>
       </c>
       <c r="F34" t="n">
-        <v>38.57492021463304</v>
+        <v>38.57492021463298</v>
       </c>
       <c r="G34" t="n">
-        <v>59.89067029808643</v>
+        <v>59.89067029808637</v>
       </c>
       <c r="H34" t="n">
-        <v>44.23023320342776</v>
+        <v>44.2302332034277</v>
       </c>
       <c r="I34" t="n">
-        <v>10.88769637476722</v>
+        <v>10.88769637476717</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>14.05471381652008</v>
+        <v>14.05471381652003</v>
       </c>
       <c r="S34" t="n">
-        <v>95.31351149934585</v>
+        <v>95.31351149934579</v>
       </c>
       <c r="T34" t="n">
         <v>115.7406871793029</v>
@@ -3244,16 +3244,16 @@
         <v>179.4044916617159</v>
       </c>
       <c r="V34" t="n">
-        <v>145.2915155155298</v>
+        <v>145.2915155155297</v>
       </c>
       <c r="W34" t="n">
-        <v>179.6768705282928</v>
+        <v>179.6768705282927</v>
       </c>
       <c r="X34" t="n">
         <v>118.8635275807389</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.7385255437966</v>
+        <v>111.7385255437965</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.8774031286128</v>
+        <v>171.8774031286127</v>
       </c>
       <c r="C35" t="n">
         <v>154.4164532361397</v>
       </c>
       <c r="D35" t="n">
-        <v>143.8266030858152</v>
+        <v>143.8266030858151</v>
       </c>
       <c r="E35" t="n">
-        <v>171.073931537394</v>
+        <v>171.0739315373939</v>
       </c>
       <c r="F35" t="n">
         <v>196.0196072068436</v>
@@ -3281,7 +3281,7 @@
         <v>201.6503170204126</v>
       </c>
       <c r="H35" t="n">
-        <v>99.98401333453833</v>
+        <v>99.98401333453828</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>40.26553581618032</v>
+        <v>40.26553581618026</v>
       </c>
       <c r="V35" t="n">
-        <v>116.8958199352671</v>
+        <v>116.895819935267</v>
       </c>
       <c r="W35" t="n">
-        <v>138.3845301825452</v>
+        <v>138.3845301825451</v>
       </c>
       <c r="X35" t="n">
         <v>158.8746621436012</v>
       </c>
       <c r="Y35" t="n">
-        <v>175.3815001211858</v>
+        <v>175.3815001211857</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>103.4889336654904</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.89022697185282</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>152.8937059533611</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8429621971285</v>
+        <v>14.98652366226066</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3427,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>92.6429012627104</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S37" t="n">
-        <v>125.298461692388</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.73037645273333</v>
+        <v>11.73037645273327</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2506194700141</v>
+        <v>75.39418093514625</v>
       </c>
       <c r="V37" t="n">
-        <v>41.2812047889602</v>
+        <v>41.28120478896014</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>75.66655980172314</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.728214817226984</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>171.8774031286128</v>
+        <v>171.8774031286126</v>
       </c>
       <c r="C38" t="n">
-        <v>154.4164532361397</v>
+        <v>154.4164532361396</v>
       </c>
       <c r="D38" t="n">
-        <v>143.8266030858152</v>
+        <v>143.826603085815</v>
       </c>
       <c r="E38" t="n">
-        <v>171.073931537394</v>
+        <v>171.0739315373938</v>
       </c>
       <c r="F38" t="n">
-        <v>196.0196072068436</v>
+        <v>196.0196072068435</v>
       </c>
       <c r="G38" t="n">
-        <v>201.6503170204126</v>
+        <v>201.6503170204125</v>
       </c>
       <c r="H38" t="n">
-        <v>99.98401333453833</v>
+        <v>99.98401333453819</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>40.26553581618032</v>
+        <v>40.26553581618018</v>
       </c>
       <c r="V38" t="n">
-        <v>116.8958199352671</v>
+        <v>116.895819935267</v>
       </c>
       <c r="W38" t="n">
-        <v>138.3845301825452</v>
+        <v>138.3845301825451</v>
       </c>
       <c r="X38" t="n">
-        <v>158.8746621436012</v>
+        <v>158.8746621436011</v>
       </c>
       <c r="Y38" t="n">
-        <v>175.3815001211858</v>
+        <v>175.3815001211856</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>61.03585163944501</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.89022697185282</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>7.275709104097459</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U39" t="n">
-        <v>14.98652366226072</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>127.1683167547565</v>
       </c>
     </row>
     <row r="40">
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>81.17882126390502</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.7338241830654</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>4.688565595031989</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.2025814326994</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.73037645273333</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U40" t="n">
-        <v>75.39418093514631</v>
+        <v>75.39418093514617</v>
       </c>
       <c r="V40" t="n">
-        <v>41.2812047889602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.6665598017232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>14.85321685416935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.728214817226984</v>
+        <v>7.728214817226842</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>171.8774031286128</v>
       </c>
       <c r="C41" t="n">
-        <v>154.4164532361397</v>
+        <v>154.4164532361398</v>
       </c>
       <c r="D41" t="n">
         <v>143.8266030858152</v>
@@ -3749,13 +3749,13 @@
         <v>171.073931537394</v>
       </c>
       <c r="F41" t="n">
-        <v>196.0196072068436</v>
+        <v>196.0196072068437</v>
       </c>
       <c r="G41" t="n">
-        <v>201.6503170204126</v>
+        <v>201.6503170204127</v>
       </c>
       <c r="H41" t="n">
-        <v>99.98401333453833</v>
+        <v>99.98401333453836</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>40.26553581618032</v>
+        <v>40.26553581618035</v>
       </c>
       <c r="V41" t="n">
         <v>116.8958199352671</v>
@@ -3803,7 +3803,7 @@
         <v>138.3845301825452</v>
       </c>
       <c r="X41" t="n">
-        <v>158.8746621436012</v>
+        <v>158.8746621436013</v>
       </c>
       <c r="Y41" t="n">
         <v>175.3815001211858</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,19 +3825,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>97.78740528786001</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>37.89022697185282</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,16 +3867,16 @@
         <v>7.275709104097459</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T42" t="n">
-        <v>61.03585163944462</v>
+        <v>114.8622037184034</v>
       </c>
       <c r="U42" t="n">
-        <v>14.98652366226072</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>21.94414861455749</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3907,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>140.9588987870466</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T43" t="n">
-        <v>11.73037645273333</v>
+        <v>11.73037645273336</v>
       </c>
       <c r="U43" t="n">
-        <v>75.39418093514631</v>
+        <v>235.393757533243</v>
       </c>
       <c r="V43" t="n">
-        <v>41.2812047889602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.66655980172322</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>14.85321685416937</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,7 +3977,7 @@
         <v>171.8774031286128</v>
       </c>
       <c r="C44" t="n">
-        <v>154.4164532361397</v>
+        <v>154.4164532361398</v>
       </c>
       <c r="D44" t="n">
         <v>143.8266030858152</v>
@@ -3986,13 +3986,13 @@
         <v>171.073931537394</v>
       </c>
       <c r="F44" t="n">
-        <v>196.0196072068436</v>
+        <v>196.0196072068437</v>
       </c>
       <c r="G44" t="n">
-        <v>201.6503170204126</v>
+        <v>201.6503170204127</v>
       </c>
       <c r="H44" t="n">
-        <v>99.98401333453833</v>
+        <v>99.98401333453836</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>40.26553581618032</v>
+        <v>40.26553581618035</v>
       </c>
       <c r="V44" t="n">
         <v>116.8958199352671</v>
@@ -4040,7 +4040,7 @@
         <v>138.3845301825452</v>
       </c>
       <c r="X44" t="n">
-        <v>158.8746621436012</v>
+        <v>158.8746621436013</v>
       </c>
       <c r="Y44" t="n">
         <v>175.3815001211858</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4062,13 +4062,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>79.21851133851807</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>7.275709104097459</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.8959572312332</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U45" t="n">
-        <v>38.13214832985249</v>
+        <v>225.8429621971285</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>21.94414861455749</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7367981063846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.8918452118671</v>
       </c>
       <c r="J46" t="n">
-        <v>4.688565595031989</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.1596393076441</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.5868149876011</v>
+        <v>11.73037645273336</v>
       </c>
       <c r="U46" t="n">
-        <v>269.1695193778996</v>
+        <v>286.2506194700141</v>
       </c>
       <c r="V46" t="n">
-        <v>41.2812047889602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>75.6665598017232</v>
+        <v>75.66655980172322</v>
       </c>
       <c r="X46" t="n">
-        <v>14.85321685416935</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.728214817226984</v>
+        <v>7.728214817227013</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672.6433564711317</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="C11" t="n">
-        <v>436.0912579852813</v>
+        <v>1252.307650469328</v>
       </c>
       <c r="D11" t="n">
-        <v>210.2359778330921</v>
+        <v>1026.452370317139</v>
       </c>
       <c r="E11" t="n">
-        <v>210.2359778330921</v>
+        <v>773.0745361734563</v>
       </c>
       <c r="F11" t="n">
-        <v>210.2359778330921</v>
+        <v>494.4990498384101</v>
       </c>
       <c r="G11" t="n">
         <v>210.2359778330921</v>
@@ -5039,19 +5039,19 @@
         <v>28.66614187411185</v>
       </c>
       <c r="J11" t="n">
-        <v>84.36311551925047</v>
+        <v>84.36311551925019</v>
       </c>
       <c r="K11" t="n">
-        <v>218.576959308317</v>
+        <v>218.5769593083166</v>
       </c>
       <c r="L11" t="n">
-        <v>421.9828623864887</v>
+        <v>421.982862386488</v>
       </c>
       <c r="M11" t="n">
-        <v>679.9805591267261</v>
+        <v>679.9805591267254</v>
       </c>
       <c r="N11" t="n">
-        <v>946.7667367073411</v>
+        <v>946.7667367073406</v>
       </c>
       <c r="O11" t="n">
         <v>1185.35009778394</v>
@@ -5075,16 +5075,16 @@
         <v>1433.307093705592</v>
       </c>
       <c r="V11" t="n">
-        <v>1404.919928417495</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="W11" t="n">
-        <v>1184.561691601943</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="X11" t="n">
-        <v>1184.561691601943</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="Y11" t="n">
-        <v>926.8327780806922</v>
+        <v>1433.307093705592</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>397.8140706826364</v>
+        <v>452.5731002741622</v>
       </c>
       <c r="C12" t="n">
-        <v>223.3610414015093</v>
+        <v>410.5304894475966</v>
       </c>
       <c r="D12" t="n">
-        <v>74.42663174025806</v>
+        <v>377.5204251866057</v>
       </c>
       <c r="E12" t="n">
-        <v>47.59959518936384</v>
+        <v>350.6933886357115</v>
       </c>
       <c r="F12" t="n">
-        <v>33.47545567081008</v>
+        <v>204.1588306625964</v>
       </c>
       <c r="G12" t="n">
-        <v>28.66614187411185</v>
+        <v>66.93909841133693</v>
       </c>
       <c r="H12" t="n">
-        <v>28.66614187411185</v>
+        <v>66.93909841133693</v>
       </c>
       <c r="I12" t="n">
         <v>28.66614187411185</v>
       </c>
       <c r="J12" t="n">
-        <v>43.02103085769577</v>
+        <v>167.8511558447005</v>
       </c>
       <c r="K12" t="n">
-        <v>145.7106472686428</v>
+        <v>347.3525912880422</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1120503740898</v>
+        <v>531.7539943934893</v>
       </c>
       <c r="M12" t="n">
-        <v>564.6566583181309</v>
+        <v>766.2986023375303</v>
       </c>
       <c r="N12" t="n">
-        <v>819.8176090409354</v>
+        <v>1021.459553060335</v>
       </c>
       <c r="O12" t="n">
-        <v>1031.020234015601</v>
+        <v>1232.662178035001</v>
       </c>
       <c r="P12" t="n">
         <v>1382.83783828622</v>
@@ -5142,28 +5142,28 @@
         <v>1433.307093705592</v>
       </c>
       <c r="R12" t="n">
-        <v>1425.957892590342</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S12" t="n">
-        <v>1413.018859296183</v>
+        <v>1420.368060411433</v>
       </c>
       <c r="T12" t="n">
-        <v>1349.333448985251</v>
+        <v>1224.27223164594</v>
       </c>
       <c r="U12" t="n">
-        <v>1253.619663200289</v>
+        <v>1128.558445860977</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.877973423107</v>
+        <v>893.4063376292347</v>
       </c>
       <c r="W12" t="n">
-        <v>981.6412066731912</v>
+        <v>639.1689809010331</v>
       </c>
       <c r="X12" t="n">
-        <v>773.7897064676583</v>
+        <v>563.7278991500616</v>
       </c>
       <c r="Y12" t="n">
-        <v>566.0294077027045</v>
+        <v>488.378018839669</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.0828876158868</v>
+        <v>362.8614999142584</v>
       </c>
       <c r="C13" t="n">
-        <v>132.5571231425412</v>
+        <v>326.3357354409128</v>
       </c>
       <c r="D13" t="n">
-        <v>114.8509021847668</v>
+        <v>308.6295144831384</v>
       </c>
       <c r="E13" t="n">
-        <v>99.34822705693493</v>
+        <v>293.1268393553066</v>
       </c>
       <c r="F13" t="n">
-        <v>84.86869801358586</v>
+        <v>278.6473103119575</v>
       </c>
       <c r="G13" t="n">
-        <v>48.85810827987983</v>
+        <v>110.2263021236902</v>
       </c>
       <c r="H13" t="n">
-        <v>28.66614187411185</v>
+        <v>90.03433571792225</v>
       </c>
       <c r="I13" t="n">
-        <v>28.66614187411185</v>
+        <v>33.40206671757852</v>
       </c>
       <c r="J13" t="n">
         <v>28.66614187411185</v>
@@ -5224,25 +5224,25 @@
         <v>1196.289267781553</v>
       </c>
       <c r="S13" t="n">
-        <v>992.0876119152463</v>
+        <v>1124.498030369808</v>
       </c>
       <c r="T13" t="n">
-        <v>899.662863715665</v>
+        <v>1032.073282170226</v>
       </c>
       <c r="U13" t="n">
-        <v>681.563048457715</v>
+        <v>875.3416607560864</v>
       </c>
       <c r="V13" t="n">
-        <v>559.2889787063895</v>
+        <v>753.0675910047609</v>
       </c>
       <c r="W13" t="n">
-        <v>402.2822271239901</v>
+        <v>596.0608394223616</v>
       </c>
       <c r="X13" t="n">
-        <v>306.7030946805341</v>
+        <v>500.4817069789055</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.3209339915653</v>
+        <v>412.0995462899368</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>844.8825343581591</v>
+        <v>543.9189858339666</v>
       </c>
       <c r="C14" t="n">
-        <v>844.8825343581591</v>
+        <v>307.3668873481162</v>
       </c>
       <c r="D14" t="n">
-        <v>844.8825343581591</v>
+        <v>81.51160719592687</v>
       </c>
       <c r="E14" t="n">
-        <v>591.5047002144761</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="F14" t="n">
-        <v>312.9292138794298</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="G14" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="H14" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I14" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J14" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925057</v>
       </c>
       <c r="K14" t="n">
-        <v>218.5769593083178</v>
+        <v>218.5769593083172</v>
       </c>
       <c r="L14" t="n">
-        <v>421.9828623864892</v>
+        <v>421.9828623864886</v>
       </c>
       <c r="M14" t="n">
-        <v>679.9805591267266</v>
+        <v>679.9805591267262</v>
       </c>
       <c r="N14" t="n">
-        <v>946.7667367073417</v>
+        <v>946.7667367073414</v>
       </c>
       <c r="O14" t="n">
-        <v>1185.350097783941</v>
+        <v>1185.35009778394</v>
       </c>
       <c r="P14" t="n">
         <v>1354.474475782721</v>
       </c>
       <c r="Q14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R14" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S14" t="n">
-        <v>1433.307093705593</v>
+        <v>1418.943137739893</v>
       </c>
       <c r="T14" t="n">
-        <v>1433.307093705593</v>
+        <v>1338.367254644082</v>
       </c>
       <c r="U14" t="n">
-        <v>1433.307093705593</v>
+        <v>1217.11911314809</v>
       </c>
       <c r="V14" t="n">
-        <v>1319.430192783272</v>
+        <v>1018.46664425908</v>
       </c>
       <c r="W14" t="n">
-        <v>1099.07195596772</v>
+        <v>798.1084074435273</v>
       </c>
       <c r="X14" t="n">
-        <v>1099.07195596772</v>
+        <v>798.1084074435273</v>
       </c>
       <c r="Y14" t="n">
-        <v>1099.07195596772</v>
+        <v>798.1084074435273</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>530.2244891371976</v>
+        <v>496.5892275390609</v>
       </c>
       <c r="C15" t="n">
-        <v>488.1818783106319</v>
+        <v>322.1361982579339</v>
       </c>
       <c r="D15" t="n">
-        <v>339.2474686493806</v>
+        <v>305.6122070512438</v>
       </c>
       <c r="E15" t="n">
-        <v>180.0100136439251</v>
+        <v>146.3747520457883</v>
       </c>
       <c r="F15" t="n">
-        <v>33.47545567081009</v>
+        <v>132.2506125272344</v>
       </c>
       <c r="G15" t="n">
-        <v>28.66614187411186</v>
+        <v>127.4412987305361</v>
       </c>
       <c r="H15" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I15" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J15" t="n">
-        <v>43.02103085769581</v>
+        <v>43.0210308576958</v>
       </c>
       <c r="K15" t="n">
         <v>145.7106472686428</v>
@@ -5364,43 +5364,43 @@
         <v>330.11205037409</v>
       </c>
       <c r="M15" t="n">
-        <v>564.6566583181311</v>
+        <v>666.7160473682005</v>
       </c>
       <c r="N15" t="n">
-        <v>819.8176090409357</v>
+        <v>1021.459553060335</v>
       </c>
       <c r="O15" t="n">
-        <v>1031.020234015602</v>
+        <v>1232.662178035001</v>
       </c>
       <c r="P15" t="n">
-        <v>1181.195894266821</v>
+        <v>1382.83783828622</v>
       </c>
       <c r="Q15" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R15" t="n">
-        <v>1425.957892590343</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S15" t="n">
-        <v>1413.018859296184</v>
+        <v>1420.368060411433</v>
       </c>
       <c r="T15" t="n">
-        <v>1349.333448985252</v>
+        <v>1356.682650100501</v>
       </c>
       <c r="U15" t="n">
-        <v>1253.619663200289</v>
+        <v>1172.574573125876</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.877973423108</v>
+        <v>937.4224648941337</v>
       </c>
       <c r="W15" t="n">
-        <v>1029.051035149467</v>
+        <v>815.5955266204933</v>
       </c>
       <c r="X15" t="n">
-        <v>906.2001249222194</v>
+        <v>740.1544448695216</v>
       </c>
       <c r="Y15" t="n">
-        <v>698.4398261572655</v>
+        <v>664.8045645591289</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.2292309139148</v>
+        <v>169.0828876158873</v>
       </c>
       <c r="C16" t="n">
-        <v>269.7034664405692</v>
+        <v>132.5571231425416</v>
       </c>
       <c r="D16" t="n">
-        <v>119.5868270282334</v>
+        <v>114.8509021847671</v>
       </c>
       <c r="E16" t="n">
-        <v>104.0841519004016</v>
+        <v>99.3482270569352</v>
       </c>
       <c r="F16" t="n">
-        <v>89.60462285705253</v>
+        <v>84.86869801358604</v>
       </c>
       <c r="G16" t="n">
-        <v>53.59403312334649</v>
+        <v>48.85810827987992</v>
       </c>
       <c r="H16" t="n">
-        <v>33.40206671757851</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I16" t="n">
-        <v>33.40206671757851</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J16" t="n">
-        <v>28.66614187411186</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="K16" t="n">
         <v>150.8752725800539</v>
@@ -5461,25 +5461,25 @@
         <v>1196.289267781553</v>
       </c>
       <c r="S16" t="n">
-        <v>1067.865761369464</v>
+        <v>1124.498030369808</v>
       </c>
       <c r="T16" t="n">
-        <v>975.441013169883</v>
+        <v>899.662863715665</v>
       </c>
       <c r="U16" t="n">
-        <v>818.7093917557431</v>
+        <v>681.5630484577159</v>
       </c>
       <c r="V16" t="n">
-        <v>696.4353220044176</v>
+        <v>559.2889787063903</v>
       </c>
       <c r="W16" t="n">
-        <v>539.4285704220182</v>
+        <v>402.2822271239909</v>
       </c>
       <c r="X16" t="n">
-        <v>443.8494379785621</v>
+        <v>306.7030946805347</v>
       </c>
       <c r="Y16" t="n">
-        <v>355.4672772895933</v>
+        <v>218.3209339915658</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>841.3074592079176</v>
+        <v>787.6268613149705</v>
       </c>
       <c r="C17" t="n">
-        <v>712.6807423466108</v>
+        <v>659.0001444536638</v>
       </c>
       <c r="D17" t="n">
-        <v>594.7508438189651</v>
+        <v>541.0702459260183</v>
       </c>
       <c r="E17" t="n">
-        <v>449.2983912998256</v>
+        <v>395.617793406879</v>
       </c>
       <c r="F17" t="n">
-        <v>278.6482865893228</v>
+        <v>224.9676886963764</v>
       </c>
       <c r="G17" t="n">
-        <v>102.3105962085487</v>
+        <v>102.3105962085485</v>
       </c>
       <c r="H17" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I17" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J17" t="n">
-        <v>84.36311551925058</v>
+        <v>84.36311551925057</v>
       </c>
       <c r="K17" t="n">
         <v>218.5769593083172</v>
@@ -5537,28 +5537,28 @@
         <v>1433.307093705593</v>
       </c>
       <c r="R17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T17" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="U17" t="n">
         <v>1419.984333834144</v>
       </c>
       <c r="V17" t="n">
-        <v>1382.937844462626</v>
+        <v>1329.257246569678</v>
       </c>
       <c r="W17" t="n">
-        <v>1270.504989271617</v>
+        <v>1216.824391378669</v>
       </c>
       <c r="X17" t="n">
-        <v>1137.375031089642</v>
+        <v>1083.694433196694</v>
       </c>
       <c r="Y17" t="n">
-        <v>987.5714991929347</v>
+        <v>933.8909012999873</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>657.8255937950606</v>
+        <v>747.2859249296295</v>
       </c>
       <c r="C18" t="n">
-        <v>483.3725645139336</v>
+        <v>572.8328956485025</v>
       </c>
       <c r="D18" t="n">
-        <v>334.4381548526824</v>
+        <v>423.8984859872511</v>
       </c>
       <c r="E18" t="n">
-        <v>175.2006998472269</v>
+        <v>264.6610309817956</v>
       </c>
       <c r="F18" t="n">
-        <v>28.66614187411187</v>
+        <v>264.6610309817956</v>
       </c>
       <c r="G18" t="n">
-        <v>28.66614187411187</v>
+        <v>127.4412987305361</v>
       </c>
       <c r="H18" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I18" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J18" t="n">
-        <v>43.02103085769581</v>
+        <v>43.0210308576958</v>
       </c>
       <c r="K18" t="n">
-        <v>145.7106472686428</v>
+        <v>203.8117105705736</v>
       </c>
       <c r="L18" t="n">
-        <v>330.11205037409</v>
+        <v>388.2131136760208</v>
       </c>
       <c r="M18" t="n">
-        <v>564.6566583181311</v>
+        <v>622.7577216200618</v>
       </c>
       <c r="N18" t="n">
-        <v>819.8176090409357</v>
+        <v>877.9186723428664</v>
       </c>
       <c r="O18" t="n">
-        <v>1031.020234015602</v>
+        <v>1232.662178035001</v>
       </c>
       <c r="P18" t="n">
         <v>1382.83783828622</v>
       </c>
       <c r="Q18" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R18" t="n">
-        <v>1425.957892590343</v>
+        <v>1425.957892590342</v>
       </c>
       <c r="S18" t="n">
-        <v>1425.957892590343</v>
+        <v>1280.608440841622</v>
       </c>
       <c r="T18" t="n">
-        <v>1425.957892590343</v>
+        <v>1084.512612076129</v>
       </c>
       <c r="U18" t="n">
-        <v>1425.957892590343</v>
+        <v>1084.512612076129</v>
       </c>
       <c r="V18" t="n">
-        <v>1425.957892590343</v>
+        <v>1084.512612076129</v>
       </c>
       <c r="W18" t="n">
-        <v>1241.652729785615</v>
+        <v>1070.611055427032</v>
       </c>
       <c r="X18" t="n">
-        <v>1033.801229580082</v>
+        <v>862.7595552214991</v>
       </c>
       <c r="Y18" t="n">
-        <v>826.0409308151286</v>
+        <v>747.2859249296295</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>202.3382496454854</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="C19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="D19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="E19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="F19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="G19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="H19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="I19" t="n">
-        <v>33.40206671757852</v>
+        <v>33.40206671757851</v>
       </c>
       <c r="J19" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="K19" t="n">
         <v>150.8752725800539</v>
@@ -5680,10 +5680,10 @@
         <v>362.7873193555494</v>
       </c>
       <c r="M19" t="n">
-        <v>596.6079835133992</v>
+        <v>596.6079835133991</v>
       </c>
       <c r="N19" t="n">
-        <v>830.3035313143097</v>
+        <v>830.3035313143096</v>
       </c>
       <c r="O19" t="n">
         <v>1030.142898914446</v>
@@ -5692,31 +5692,31 @@
         <v>1177.619318985038</v>
       </c>
       <c r="Q19" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="R19" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S19" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.289267781554</v>
+        <v>1016.404759542704</v>
       </c>
       <c r="U19" t="n">
-        <v>1136.534702681015</v>
+        <v>967.5985197531082</v>
       </c>
       <c r="V19" t="n">
-        <v>1122.186014554233</v>
+        <v>712.9140315472214</v>
       </c>
       <c r="W19" t="n">
-        <v>832.7688445172726</v>
+        <v>663.8326615893657</v>
       </c>
       <c r="X19" t="n">
-        <v>604.7792936192552</v>
+        <v>435.8431106913483</v>
       </c>
       <c r="Y19" t="n">
-        <v>383.9867144757251</v>
+        <v>215.0505315478182</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>787.62686131497</v>
+        <v>787.6268613149698</v>
       </c>
       <c r="C20" t="n">
-        <v>712.6807423466109</v>
+        <v>659.0001444536631</v>
       </c>
       <c r="D20" t="n">
-        <v>594.7508438189652</v>
+        <v>541.0702459260176</v>
       </c>
       <c r="E20" t="n">
-        <v>449.2983912998258</v>
+        <v>395.6177934068783</v>
       </c>
       <c r="F20" t="n">
-        <v>278.6482865893229</v>
+        <v>224.9676886963757</v>
       </c>
       <c r="G20" t="n">
-        <v>102.3105962085487</v>
+        <v>48.62999831560214</v>
       </c>
       <c r="H20" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I20" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J20" t="n">
-        <v>84.36311551925064</v>
+        <v>84.36311551925047</v>
       </c>
       <c r="K20" t="n">
-        <v>218.5769593083178</v>
+        <v>218.576959308317</v>
       </c>
       <c r="L20" t="n">
-        <v>421.9828623864895</v>
+        <v>421.9828623864884</v>
       </c>
       <c r="M20" t="n">
-        <v>679.980559126727</v>
+        <v>679.9805591267258</v>
       </c>
       <c r="N20" t="n">
-        <v>946.7667367073421</v>
+        <v>946.7667367073414</v>
       </c>
       <c r="O20" t="n">
-        <v>1185.350097783941</v>
+        <v>1185.35009778394</v>
       </c>
       <c r="P20" t="n">
-        <v>1354.474475782721</v>
+        <v>1354.47447578272</v>
       </c>
       <c r="Q20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T20" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="U20" t="n">
-        <v>1419.984333834144</v>
+        <v>1419.984333834143</v>
       </c>
       <c r="V20" t="n">
-        <v>1329.257246569679</v>
+        <v>1329.257246569677</v>
       </c>
       <c r="W20" t="n">
-        <v>1216.824391378669</v>
+        <v>1216.824391378668</v>
       </c>
       <c r="X20" t="n">
-        <v>1083.694433196694</v>
+        <v>1083.694433196693</v>
       </c>
       <c r="Y20" t="n">
-        <v>933.890901299987</v>
+        <v>933.8909012999866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.8255937950606</v>
+        <v>623.9215747732627</v>
       </c>
       <c r="C21" t="n">
-        <v>483.3725645139336</v>
+        <v>449.4685454921357</v>
       </c>
       <c r="D21" t="n">
-        <v>334.4381548526824</v>
+        <v>449.4685454921357</v>
       </c>
       <c r="E21" t="n">
-        <v>175.2006998472269</v>
+        <v>449.4685454921357</v>
       </c>
       <c r="F21" t="n">
-        <v>28.66614187411187</v>
+        <v>302.9339875190207</v>
       </c>
       <c r="G21" t="n">
-        <v>28.66614187411187</v>
+        <v>165.7142552677612</v>
       </c>
       <c r="H21" t="n">
-        <v>28.66614187411187</v>
+        <v>66.93909841133693</v>
       </c>
       <c r="I21" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J21" t="n">
-        <v>43.02103085769581</v>
+        <v>43.02103085769577</v>
       </c>
       <c r="K21" t="n">
         <v>145.7106472686428</v>
       </c>
       <c r="L21" t="n">
-        <v>330.11205037409</v>
+        <v>330.1120503740898</v>
       </c>
       <c r="M21" t="n">
-        <v>564.6566583181311</v>
+        <v>564.6566583181309</v>
       </c>
       <c r="N21" t="n">
-        <v>819.8176090409357</v>
+        <v>919.400164010265</v>
       </c>
       <c r="O21" t="n">
-        <v>1031.020234015602</v>
+        <v>1130.602788984931</v>
       </c>
       <c r="P21" t="n">
         <v>1382.83783828622</v>
       </c>
       <c r="Q21" t="n">
-        <v>1433.307093705593</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="R21" t="n">
-        <v>1425.957892590343</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="S21" t="n">
-        <v>1425.957892590343</v>
+        <v>1433.307093705592</v>
       </c>
       <c r="T21" t="n">
-        <v>1425.957892590343</v>
+        <v>1237.211264940099</v>
       </c>
       <c r="U21" t="n">
-        <v>1425.957892590343</v>
+        <v>1086.010431706997</v>
       </c>
       <c r="V21" t="n">
-        <v>1425.957892590343</v>
+        <v>1086.010431706997</v>
       </c>
       <c r="W21" t="n">
-        <v>1241.652729785615</v>
+        <v>831.7730749787955</v>
       </c>
       <c r="X21" t="n">
-        <v>1033.801229580082</v>
+        <v>623.9215747732627</v>
       </c>
       <c r="Y21" t="n">
-        <v>826.0409308151286</v>
+        <v>623.9215747732627</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>655.0161473868696</v>
+        <v>197.6023248020188</v>
       </c>
       <c r="C22" t="n">
-        <v>501.3154072640855</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3154072640855</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="E22" t="n">
-        <v>501.3154072640855</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="F22" t="n">
-        <v>354.4254597661751</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="G22" t="n">
-        <v>186.0044515779078</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="H22" t="n">
-        <v>33.40206671757852</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="I22" t="n">
-        <v>33.40206671757852</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="J22" t="n">
-        <v>28.66614187411187</v>
+        <v>28.66614187411185</v>
       </c>
       <c r="K22" t="n">
         <v>150.8752725800539</v>
@@ -5917,10 +5917,10 @@
         <v>362.7873193555494</v>
       </c>
       <c r="M22" t="n">
-        <v>596.6079835133992</v>
+        <v>596.6079835133991</v>
       </c>
       <c r="N22" t="n">
-        <v>830.3035313143097</v>
+        <v>830.3035313143096</v>
       </c>
       <c r="O22" t="n">
         <v>1030.142898914446</v>
@@ -5929,31 +5929,31 @@
         <v>1177.619318985038</v>
       </c>
       <c r="Q22" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="R22" t="n">
-        <v>1196.289267781554</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="S22" t="n">
-        <v>992.0876119152465</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="T22" t="n">
-        <v>767.252445261104</v>
+        <v>1196.289267781553</v>
       </c>
       <c r="U22" t="n">
-        <v>718.4462054715076</v>
+        <v>907.1472279128523</v>
       </c>
       <c r="V22" t="n">
-        <v>704.0975173447255</v>
+        <v>715.0090457369968</v>
       </c>
       <c r="W22" t="n">
-        <v>655.0161473868696</v>
+        <v>425.5918757000361</v>
       </c>
       <c r="X22" t="n">
-        <v>655.0161473868696</v>
+        <v>197.6023248020188</v>
       </c>
       <c r="Y22" t="n">
-        <v>655.0161473868696</v>
+        <v>197.6023248020188</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>842.4029816138966</v>
+        <v>842.4029816138959</v>
       </c>
       <c r="C23" t="n">
-        <v>713.7762647525897</v>
+        <v>713.7762647525892</v>
       </c>
       <c r="D23" t="n">
-        <v>595.8463662249439</v>
+        <v>595.8463662249436</v>
       </c>
       <c r="E23" t="n">
-        <v>450.3939137058045</v>
+        <v>450.3939137058044</v>
       </c>
       <c r="F23" t="n">
-        <v>279.7438089953017</v>
+        <v>279.7438089953018</v>
       </c>
       <c r="G23" t="n">
-        <v>103.4061186145272</v>
+        <v>103.406118614527</v>
       </c>
       <c r="H23" t="n">
-        <v>29.7616642800904</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="I23" t="n">
-        <v>29.7616642800904</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="J23" t="n">
-        <v>85.45863792522911</v>
+        <v>85.45863792522908</v>
       </c>
       <c r="K23" t="n">
         <v>219.6724817142957</v>
       </c>
       <c r="L23" t="n">
-        <v>476.7589826854154</v>
+        <v>423.0783847924671</v>
       </c>
       <c r="M23" t="n">
-        <v>734.756679425653</v>
+        <v>681.0760815327047</v>
       </c>
       <c r="N23" t="n">
-        <v>1001.542857006268</v>
+        <v>947.8622591133199</v>
       </c>
       <c r="O23" t="n">
-        <v>1240.126218082867</v>
+        <v>1186.445620189919</v>
       </c>
       <c r="P23" t="n">
-        <v>1409.250596081648</v>
+        <v>1355.569998188699</v>
       </c>
       <c r="Q23" t="n">
-        <v>1488.08321400452</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="R23" t="n">
-        <v>1488.08321400452</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="S23" t="n">
-        <v>1488.08321400452</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="T23" t="n">
-        <v>1488.08321400452</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="U23" t="n">
-        <v>1474.760454133071</v>
+        <v>1474.760454133069</v>
       </c>
       <c r="V23" t="n">
-        <v>1384.033366868605</v>
+        <v>1384.033366868603</v>
       </c>
       <c r="W23" t="n">
-        <v>1271.600511677596</v>
+        <v>1271.600511677594</v>
       </c>
       <c r="X23" t="n">
-        <v>1138.470553495621</v>
+        <v>1138.470553495619</v>
       </c>
       <c r="Y23" t="n">
-        <v>988.6670215989136</v>
+        <v>988.6670215989127</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>204.2146935612174</v>
+        <v>391.4220597596938</v>
       </c>
       <c r="C24" t="n">
-        <v>29.7616642800904</v>
+        <v>216.9690304785667</v>
       </c>
       <c r="D24" t="n">
-        <v>29.7616642800904</v>
+        <v>68.03462081731543</v>
       </c>
       <c r="E24" t="n">
-        <v>29.7616642800904</v>
+        <v>68.03462081731543</v>
       </c>
       <c r="F24" t="n">
-        <v>29.7616642800904</v>
+        <v>68.03462081731543</v>
       </c>
       <c r="G24" t="n">
-        <v>29.7616642800904</v>
+        <v>68.03462081731543</v>
       </c>
       <c r="H24" t="n">
-        <v>29.7616642800904</v>
+        <v>68.03462081731543</v>
       </c>
       <c r="I24" t="n">
-        <v>29.7616642800904</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="J24" t="n">
-        <v>91.46258031753143</v>
+        <v>44.11655326367431</v>
       </c>
       <c r="K24" t="n">
-        <v>194.1521967284785</v>
+        <v>146.8061696746213</v>
       </c>
       <c r="L24" t="n">
-        <v>378.5535998339256</v>
+        <v>515.1067651407395</v>
       </c>
       <c r="M24" t="n">
-        <v>613.0982077779666</v>
+        <v>749.6513730847805</v>
       </c>
       <c r="N24" t="n">
-        <v>868.2591585007713</v>
+        <v>1076.23567335926</v>
       </c>
       <c r="O24" t="n">
-        <v>1079.461783475437</v>
+        <v>1287.438298333926</v>
       </c>
       <c r="P24" t="n">
-        <v>1229.637443726656</v>
+        <v>1437.613958585145</v>
       </c>
       <c r="Q24" t="n">
-        <v>1488.08321400452</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="R24" t="n">
-        <v>1480.73401288927</v>
+        <v>1488.083214004518</v>
       </c>
       <c r="S24" t="n">
-        <v>1480.73401288927</v>
+        <v>1342.733762255798</v>
       </c>
       <c r="T24" t="n">
-        <v>1480.73401288927</v>
+        <v>1146.637933490304</v>
       </c>
       <c r="U24" t="n">
-        <v>1277.431294511716</v>
+        <v>1021.635052272917</v>
       </c>
       <c r="V24" t="n">
-        <v>1042.279186279974</v>
+        <v>1021.635052272917</v>
       </c>
       <c r="W24" t="n">
-        <v>788.0418295517723</v>
+        <v>767.3976955447156</v>
       </c>
       <c r="X24" t="n">
-        <v>580.1903293462394</v>
+        <v>767.3976955447156</v>
       </c>
       <c r="Y24" t="n">
-        <v>372.4300305812855</v>
+        <v>559.6373967797617</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.49758912355705</v>
+        <v>332.4806885527554</v>
       </c>
       <c r="C25" t="n">
-        <v>34.49758912355705</v>
+        <v>332.4806885527554</v>
       </c>
       <c r="D25" t="n">
-        <v>34.49758912355705</v>
+        <v>182.3640491404196</v>
       </c>
       <c r="E25" t="n">
-        <v>34.49758912355705</v>
+        <v>182.3640491404196</v>
       </c>
       <c r="F25" t="n">
-        <v>34.49758912355705</v>
+        <v>182.3640491404196</v>
       </c>
       <c r="G25" t="n">
-        <v>34.49758912355705</v>
+        <v>182.3640491404196</v>
       </c>
       <c r="H25" t="n">
-        <v>34.49758912355705</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="I25" t="n">
-        <v>34.49758912355705</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="J25" t="n">
-        <v>29.7616642800904</v>
+        <v>29.76166428009036</v>
       </c>
       <c r="K25" t="n">
         <v>151.9707949860324</v>
       </c>
       <c r="L25" t="n">
-        <v>363.882841761528</v>
+        <v>363.8828417615279</v>
       </c>
       <c r="M25" t="n">
-        <v>597.7035059193777</v>
+        <v>597.7035059193776</v>
       </c>
       <c r="N25" t="n">
-        <v>831.3990537202882</v>
+        <v>831.3990537202881</v>
       </c>
       <c r="O25" t="n">
         <v>1031.238421320424</v>
       </c>
       <c r="P25" t="n">
-        <v>1178.714841391017</v>
+        <v>1178.714841391016</v>
       </c>
       <c r="Q25" t="n">
         <v>1197.384790187532</v>
       </c>
       <c r="R25" t="n">
-        <v>1075.262727940241</v>
+        <v>1197.384790187532</v>
       </c>
       <c r="S25" t="n">
-        <v>871.0610720739337</v>
+        <v>1197.384790187532</v>
       </c>
       <c r="T25" t="n">
-        <v>871.0610720739337</v>
+        <v>972.5496235333894</v>
       </c>
       <c r="U25" t="n">
-        <v>581.9190322052325</v>
+        <v>817.8950115467377</v>
       </c>
       <c r="V25" t="n">
-        <v>567.5703440784504</v>
+        <v>803.5463234199558</v>
       </c>
       <c r="W25" t="n">
-        <v>483.2797191651045</v>
+        <v>514.1291533829951</v>
       </c>
       <c r="X25" t="n">
-        <v>255.2901682670872</v>
+        <v>514.1291533829951</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.49758912355705</v>
+        <v>514.1291533829951</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1672.229470589759</v>
+        <v>1672.229470589758</v>
       </c>
       <c r="C26" t="n">
-        <v>1411.192335273891</v>
+        <v>1411.19233527389</v>
       </c>
       <c r="D26" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291683</v>
       </c>
       <c r="E26" t="n">
-        <v>882.9891473179839</v>
+        <v>882.9891473179832</v>
       </c>
       <c r="F26" t="n">
-        <v>579.92862415292</v>
+        <v>579.9286241529194</v>
       </c>
       <c r="G26" t="n">
         <v>271.1805153175839</v>
       </c>
       <c r="H26" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="I26" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J26" t="n">
         <v>288.2282651940776</v>
@@ -6230,46 +6230,46 @@
         <v>743.3460674285973</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.193153817</v>
+        <v>1199.294075732781</v>
       </c>
       <c r="M26" t="n">
-        <v>1597.190850557237</v>
+        <v>1457.291772473018</v>
       </c>
       <c r="N26" t="n">
-        <v>1863.977028137852</v>
+        <v>2157.051405221498</v>
       </c>
       <c r="O26" t="n">
-        <v>2479.552568664569</v>
+        <v>2772.626945748214</v>
       </c>
       <c r="P26" t="n">
-        <v>2967.257667753117</v>
+        <v>2941.751323746995</v>
       </c>
       <c r="Q26" t="n">
-        <v>3256.282126429295</v>
+        <v>3230.775782423173</v>
       </c>
       <c r="R26" t="n">
-        <v>3256.282126429295</v>
+        <v>3256.282126429294</v>
       </c>
       <c r="S26" t="n">
-        <v>3217.433133633578</v>
+        <v>3217.433133633577</v>
       </c>
       <c r="T26" t="n">
-        <v>3112.37221370775</v>
+        <v>3112.372213707749</v>
       </c>
       <c r="U26" t="n">
-        <v>2966.63903538174</v>
+        <v>2966.639035381739</v>
       </c>
       <c r="V26" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662712</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.658256017142</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X26" t="n">
-        <v>2233.117879380606</v>
+        <v>2233.117879380605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029336</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>103.398599065811</v>
       </c>
       <c r="I27" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J27" t="n">
-        <v>204.3106564991746</v>
+        <v>79.48053151216983</v>
       </c>
       <c r="K27" t="n">
-        <v>568.8208575525745</v>
+        <v>443.9907325655697</v>
       </c>
       <c r="L27" t="n">
-        <v>753.2222606580216</v>
+        <v>995.5240775214413</v>
       </c>
       <c r="M27" t="n">
-        <v>1353.779524603415</v>
+        <v>1230.068685465482</v>
       </c>
       <c r="N27" t="n">
-        <v>1608.94047532622</v>
+        <v>1501.638849231173</v>
       </c>
       <c r="O27" t="n">
-        <v>2210.066796384848</v>
+        <v>2102.765170289801</v>
       </c>
       <c r="P27" t="n">
-        <v>2360.242456636067</v>
+        <v>2568.218971494558</v>
       </c>
       <c r="Q27" t="n">
         <v>2618.68822691393</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>363.4502823562926</v>
+        <v>363.4502823562923</v>
       </c>
       <c r="C28" t="n">
-        <v>302.4394810529293</v>
+        <v>302.4394810529291</v>
       </c>
       <c r="D28" t="n">
-        <v>260.2482232651371</v>
+        <v>260.248223265137</v>
       </c>
       <c r="E28" t="n">
-        <v>220.2605113072876</v>
+        <v>220.2605113072875</v>
       </c>
       <c r="F28" t="n">
-        <v>181.2959454339208</v>
+        <v>181.2959454339207</v>
       </c>
       <c r="G28" t="n">
-        <v>120.8003188701971</v>
+        <v>120.800318870197</v>
       </c>
       <c r="H28" t="n">
-        <v>76.12331563441144</v>
+        <v>76.1233156344114</v>
       </c>
       <c r="I28" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J28" t="n">
         <v>166.2616291197194</v>
       </c>
       <c r="K28" t="n">
-        <v>361.5410302849775</v>
+        <v>288.4707598256615</v>
       </c>
       <c r="L28" t="n">
-        <v>573.453077060473</v>
+        <v>500.382806601157</v>
       </c>
       <c r="M28" t="n">
-        <v>807.2737412183227</v>
+        <v>734.2034707590067</v>
       </c>
       <c r="N28" t="n">
-        <v>1040.969289019233</v>
+        <v>967.8990185599172</v>
       </c>
       <c r="O28" t="n">
         <v>1240.808656619369</v>
@@ -6403,31 +6403,31 @@
         <v>1388.285076689961</v>
       </c>
       <c r="Q28" t="n">
-        <v>1406.955025486477</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R28" t="n">
         <v>1392.758344863729</v>
       </c>
       <c r="S28" t="n">
-        <v>1296.482070621966</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T28" t="n">
-        <v>1179.572285592367</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U28" t="n">
-        <v>998.3556273482094</v>
+        <v>998.3556273482089</v>
       </c>
       <c r="V28" t="n">
-        <v>851.5965207668661</v>
+        <v>851.5965207668656</v>
       </c>
       <c r="W28" t="n">
-        <v>670.1047323544491</v>
+        <v>670.1047323544486</v>
       </c>
       <c r="X28" t="n">
-        <v>550.0405630809753</v>
+        <v>550.0405630809749</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.1733655619888</v>
+        <v>437.1733655619884</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1411.192335273891</v>
       </c>
       <c r="D29" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291684</v>
       </c>
       <c r="E29" t="n">
-        <v>882.9891473179838</v>
+        <v>882.9891473179837</v>
       </c>
       <c r="F29" t="n">
         <v>579.9286241529198</v>
       </c>
       <c r="G29" t="n">
-        <v>271.1805153175839</v>
+        <v>271.1805153175837</v>
       </c>
       <c r="H29" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="I29" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J29" t="n">
         <v>120.8226161737246</v>
@@ -6470,43 +6470,43 @@
         <v>1192.830923891362</v>
       </c>
       <c r="M29" t="n">
-        <v>1450.828620631599</v>
+        <v>1895.847018789503</v>
       </c>
       <c r="N29" t="n">
-        <v>1838.470684131731</v>
+        <v>2534.043584671615</v>
       </c>
       <c r="O29" t="n">
-        <v>2454.046224658447</v>
+        <v>2772.626945748214</v>
       </c>
       <c r="P29" t="n">
-        <v>2941.751323746996</v>
+        <v>2941.751323746995</v>
       </c>
       <c r="Q29" t="n">
         <v>3230.775782423173</v>
       </c>
       <c r="R29" t="n">
-        <v>3256.282126429295</v>
+        <v>3256.282126429294</v>
       </c>
       <c r="S29" t="n">
-        <v>3217.433133633578</v>
+        <v>3217.433133633577</v>
       </c>
       <c r="T29" t="n">
-        <v>3112.37221370775</v>
+        <v>3112.372213707749</v>
       </c>
       <c r="U29" t="n">
-        <v>2966.63903538174</v>
+        <v>2966.639035381739</v>
       </c>
       <c r="V29" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662712</v>
       </c>
       <c r="W29" t="n">
-        <v>2498.658256017142</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X29" t="n">
-        <v>2233.117879380606</v>
+        <v>2233.117879380605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029337</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>103.398599065811</v>
       </c>
       <c r="I30" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J30" t="n">
         <v>204.3106564991746</v>
       </c>
       <c r="K30" t="n">
-        <v>568.8208575525745</v>
+        <v>568.8208575525744</v>
       </c>
       <c r="L30" t="n">
         <v>1120.354202508446</v>
       </c>
       <c r="M30" t="n">
-        <v>1354.898810452487</v>
+        <v>1815.946823564987</v>
       </c>
       <c r="N30" t="n">
-        <v>1610.059761175292</v>
+        <v>2071.107774287792</v>
       </c>
       <c r="O30" t="n">
-        <v>1894.78865543131</v>
+        <v>2282.310399262458</v>
       </c>
       <c r="P30" t="n">
-        <v>2360.242456636067</v>
+        <v>2568.218971494558</v>
       </c>
       <c r="Q30" t="n">
         <v>2618.68822691393</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>363.4502823562926</v>
+        <v>363.4502823562919</v>
       </c>
       <c r="C31" t="n">
-        <v>302.4394810529293</v>
+        <v>302.4394810529287</v>
       </c>
       <c r="D31" t="n">
-        <v>260.2482232651371</v>
+        <v>260.2482232651366</v>
       </c>
       <c r="E31" t="n">
-        <v>220.2605113072876</v>
+        <v>220.2605113072872</v>
       </c>
       <c r="F31" t="n">
-        <v>181.2959454339208</v>
+        <v>181.2959454339205</v>
       </c>
       <c r="G31" t="n">
-        <v>120.8003188701971</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H31" t="n">
-        <v>76.12331563441144</v>
+        <v>76.12331563441133</v>
       </c>
       <c r="I31" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J31" t="n">
-        <v>133.5542330488203</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="K31" t="n">
-        <v>255.7633637547624</v>
+        <v>255.7633637547608</v>
       </c>
       <c r="L31" t="n">
-        <v>467.6754105302579</v>
+        <v>467.6754105302563</v>
       </c>
       <c r="M31" t="n">
-        <v>701.4960746881076</v>
+        <v>701.496074688106</v>
       </c>
       <c r="N31" t="n">
-        <v>935.1916224890181</v>
+        <v>935.1916224890165</v>
       </c>
       <c r="O31" t="n">
-        <v>1135.030990089154</v>
+        <v>1135.030990089153</v>
       </c>
       <c r="P31" t="n">
-        <v>1282.507410159746</v>
+        <v>1282.507410159745</v>
       </c>
       <c r="Q31" t="n">
-        <v>1406.955025486477</v>
+        <v>1406.955025486476</v>
       </c>
       <c r="R31" t="n">
-        <v>1392.758344863729</v>
+        <v>1392.758344863728</v>
       </c>
       <c r="S31" t="n">
-        <v>1296.482070621966</v>
+        <v>1296.482070621965</v>
       </c>
       <c r="T31" t="n">
-        <v>1179.572285592367</v>
+        <v>1179.572285592366</v>
       </c>
       <c r="U31" t="n">
-        <v>998.3556273482094</v>
+        <v>998.3556273482081</v>
       </c>
       <c r="V31" t="n">
-        <v>851.5965207668661</v>
+        <v>851.596520766865</v>
       </c>
       <c r="W31" t="n">
-        <v>670.1047323544491</v>
+        <v>670.1047323544481</v>
       </c>
       <c r="X31" t="n">
-        <v>550.0405630809753</v>
+        <v>550.0405630809744</v>
       </c>
       <c r="Y31" t="n">
-        <v>437.1733655619888</v>
+        <v>437.1733655619879</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1672.22947058976</v>
+        <v>1672.229470589759</v>
       </c>
       <c r="C32" t="n">
         <v>1411.192335273891</v>
       </c>
       <c r="D32" t="n">
-        <v>1160.852018291685</v>
+        <v>1160.852018291684</v>
       </c>
       <c r="E32" t="n">
-        <v>882.9891473179841</v>
+        <v>882.9891473179833</v>
       </c>
       <c r="F32" t="n">
-        <v>579.9286241529203</v>
+        <v>579.9286241529195</v>
       </c>
       <c r="G32" t="n">
-        <v>271.1805153175839</v>
+        <v>271.1805153175837</v>
       </c>
       <c r="H32" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="I32" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J32" t="n">
-        <v>288.2282651940776</v>
+        <v>120.8226161737246</v>
       </c>
       <c r="K32" t="n">
-        <v>743.3460674285973</v>
+        <v>575.9404184082443</v>
       </c>
       <c r="L32" t="n">
-        <v>1313.686809810878</v>
+        <v>779.3463214864158</v>
       </c>
       <c r="M32" t="n">
-        <v>1571.684506551116</v>
+        <v>1482.362416384557</v>
       </c>
       <c r="N32" t="n">
-        <v>1838.470684131731</v>
+        <v>2182.122049133037</v>
       </c>
       <c r="O32" t="n">
-        <v>2454.046224658447</v>
+        <v>2797.697589659754</v>
       </c>
       <c r="P32" t="n">
-        <v>2941.751323746996</v>
+        <v>2966.821967658534</v>
       </c>
       <c r="Q32" t="n">
         <v>3230.775782423173</v>
       </c>
       <c r="R32" t="n">
-        <v>3256.282126429295</v>
+        <v>3256.282126429294</v>
       </c>
       <c r="S32" t="n">
-        <v>3217.433133633578</v>
+        <v>3217.433133633577</v>
       </c>
       <c r="T32" t="n">
-        <v>3112.37221370775</v>
+        <v>3112.372213707749</v>
       </c>
       <c r="U32" t="n">
-        <v>2966.63903538174</v>
+        <v>2966.639035381739</v>
       </c>
       <c r="V32" t="n">
-        <v>2743.501529662713</v>
+        <v>2743.501529662712</v>
       </c>
       <c r="W32" t="n">
-        <v>2498.658256017142</v>
+        <v>2498.658256017141</v>
       </c>
       <c r="X32" t="n">
-        <v>2233.117879380606</v>
+        <v>2233.117879380605</v>
       </c>
       <c r="Y32" t="n">
-        <v>1950.903929029338</v>
+        <v>1950.903929029337</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>103.398599065811</v>
       </c>
       <c r="I33" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J33" t="n">
-        <v>204.3106564991746</v>
+        <v>79.48053151216983</v>
       </c>
       <c r="K33" t="n">
-        <v>568.8208575525745</v>
+        <v>443.9907325655697</v>
       </c>
       <c r="L33" t="n">
-        <v>1120.354202508446</v>
+        <v>995.5240775214413</v>
       </c>
       <c r="M33" t="n">
-        <v>1354.898810452487</v>
+        <v>1230.068685465482</v>
       </c>
       <c r="N33" t="n">
-        <v>1610.059761175292</v>
+        <v>1683.586030456644</v>
       </c>
       <c r="O33" t="n">
         <v>1894.78865543131</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>363.4502823562922</v>
+        <v>363.4502823562918</v>
       </c>
       <c r="C34" t="n">
-        <v>302.439481052929</v>
+        <v>302.4394810529286</v>
       </c>
       <c r="D34" t="n">
-        <v>260.2482232651369</v>
+        <v>260.2482232651365</v>
       </c>
       <c r="E34" t="n">
-        <v>220.2605113072874</v>
+        <v>220.2605113072871</v>
       </c>
       <c r="F34" t="n">
-        <v>181.2959454339207</v>
+        <v>181.2959454339205</v>
       </c>
       <c r="G34" t="n">
-        <v>120.800318870197</v>
+        <v>120.8003188701969</v>
       </c>
       <c r="H34" t="n">
-        <v>76.12331563441138</v>
+        <v>76.12331563441131</v>
       </c>
       <c r="I34" t="n">
-        <v>65.1256425285859</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="J34" t="n">
-        <v>133.5542330488194</v>
+        <v>65.12564252858589</v>
       </c>
       <c r="K34" t="n">
-        <v>255.7633637547615</v>
+        <v>187.3347732345279</v>
       </c>
       <c r="L34" t="n">
-        <v>467.675410530257</v>
+        <v>399.2468200100234</v>
       </c>
       <c r="M34" t="n">
-        <v>701.4960746881067</v>
+        <v>701.4960746881055</v>
       </c>
       <c r="N34" t="n">
-        <v>935.1916224890172</v>
+        <v>935.191622489016</v>
       </c>
       <c r="O34" t="n">
-        <v>1135.030990089153</v>
+        <v>1135.030990089152</v>
       </c>
       <c r="P34" t="n">
-        <v>1282.507410159745</v>
+        <v>1282.507410159744</v>
       </c>
       <c r="Q34" t="n">
-        <v>1406.955025486476</v>
+        <v>1406.955025486475</v>
       </c>
       <c r="R34" t="n">
-        <v>1392.758344863729</v>
+        <v>1392.758344863728</v>
       </c>
       <c r="S34" t="n">
-        <v>1296.482070621965</v>
+        <v>1296.482070621964</v>
       </c>
       <c r="T34" t="n">
-        <v>1179.572285592366</v>
+        <v>1179.572285592365</v>
       </c>
       <c r="U34" t="n">
-        <v>998.3556273482086</v>
+        <v>998.3556273482079</v>
       </c>
       <c r="V34" t="n">
-        <v>851.5965207668654</v>
+        <v>851.5965207668647</v>
       </c>
       <c r="W34" t="n">
-        <v>670.1047323544484</v>
+        <v>670.1047323544478</v>
       </c>
       <c r="X34" t="n">
-        <v>550.0405630809747</v>
+        <v>550.0405630809742</v>
       </c>
       <c r="Y34" t="n">
-        <v>437.1733655619883</v>
+        <v>437.1733655619878</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>1013.19780916068</v>
       </c>
       <c r="C35" t="n">
-        <v>857.2215937706394</v>
+        <v>857.2215937706395</v>
       </c>
       <c r="D35" t="n">
-        <v>711.9421967142605</v>
+        <v>711.9421967142606</v>
       </c>
       <c r="E35" t="n">
-        <v>539.1402456663877</v>
+        <v>539.140245666388</v>
       </c>
       <c r="F35" t="n">
-        <v>341.1406424271518</v>
+        <v>341.140642427152</v>
       </c>
       <c r="G35" t="n">
-        <v>137.4534535176441</v>
+        <v>137.453453517644</v>
       </c>
       <c r="H35" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I35" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J35" t="n">
-        <v>259.5621233199658</v>
+        <v>226.2506370164148</v>
       </c>
       <c r="K35" t="n">
-        <v>582.7385543203044</v>
+        <v>360.4644808054814</v>
       </c>
       <c r="L35" t="n">
-        <v>786.1444573984759</v>
+        <v>811.6508014045976</v>
       </c>
       <c r="M35" t="n">
-        <v>1044.142154138714</v>
+        <v>1069.648498144835</v>
       </c>
       <c r="N35" t="n">
-        <v>1310.928331719329</v>
+        <v>1336.43467572545</v>
       </c>
       <c r="O35" t="n">
-        <v>1549.511692795928</v>
+        <v>1575.018036802049</v>
       </c>
       <c r="P35" t="n">
-        <v>1718.636070794708</v>
+        <v>1744.14241480083</v>
       </c>
       <c r="Q35" t="n">
-        <v>1797.46868871758</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R35" t="n">
         <v>1822.975032723702</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>359.8469395968523</v>
+        <v>790.9523885590803</v>
       </c>
       <c r="C36" t="n">
-        <v>185.3939103157253</v>
+        <v>616.4993592779533</v>
       </c>
       <c r="D36" t="n">
-        <v>36.45950065447404</v>
+        <v>616.4993592779533</v>
       </c>
       <c r="E36" t="n">
-        <v>36.45950065447404</v>
+        <v>457.2619042724979</v>
       </c>
       <c r="F36" t="n">
-        <v>36.45950065447404</v>
+        <v>310.7273462993828</v>
       </c>
       <c r="G36" t="n">
-        <v>36.45950065447404</v>
+        <v>173.5076140481233</v>
       </c>
       <c r="H36" t="n">
-        <v>36.45950065447404</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="I36" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J36" t="n">
-        <v>50.81438963805799</v>
+        <v>50.81438963805798</v>
       </c>
       <c r="K36" t="n">
-        <v>228.0333550997637</v>
+        <v>153.504006049005</v>
       </c>
       <c r="L36" t="n">
-        <v>412.4347582052108</v>
+        <v>337.9054091544522</v>
       </c>
       <c r="M36" t="n">
-        <v>646.9793661492519</v>
+        <v>719.9574758548774</v>
       </c>
       <c r="N36" t="n">
-        <v>902.1403168720565</v>
+        <v>1171.143796453994</v>
       </c>
       <c r="O36" t="n">
-        <v>1113.342941846722</v>
+        <v>1622.33011705311</v>
       </c>
       <c r="P36" t="n">
-        <v>1564.529262445839</v>
+        <v>1772.505777304329</v>
       </c>
       <c r="Q36" t="n">
         <v>1822.975032723702</v>
@@ -7044,22 +7044,22 @@
         <v>1815.625831608452</v>
       </c>
       <c r="T36" t="n">
-        <v>1661.187744786875</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="U36" t="n">
-        <v>1433.063540547351</v>
+        <v>1800.4879289193</v>
       </c>
       <c r="V36" t="n">
-        <v>1197.911432315609</v>
+        <v>1565.335820687557</v>
       </c>
       <c r="W36" t="n">
-        <v>943.6740755874071</v>
+        <v>1311.098463959355</v>
       </c>
       <c r="X36" t="n">
-        <v>735.8225753818742</v>
+        <v>1103.246963753822</v>
       </c>
       <c r="Y36" t="n">
-        <v>528.0622766169204</v>
+        <v>895.4866649888686</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>209.616433686208</v>
+        <v>427.0447757088721</v>
       </c>
       <c r="C37" t="n">
-        <v>209.616433686208</v>
+        <v>427.0447757088721</v>
       </c>
       <c r="D37" t="n">
-        <v>209.616433686208</v>
+        <v>276.9281362965363</v>
       </c>
       <c r="E37" t="n">
-        <v>209.616433686208</v>
+        <v>183.3494481523844</v>
       </c>
       <c r="F37" t="n">
-        <v>209.616433686208</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="G37" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="H37" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I37" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J37" t="n">
-        <v>36.45950065447404</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="K37" t="n">
         <v>158.6686313604161</v>
@@ -7117,28 +7117,28 @@
         <v>1204.082626561916</v>
       </c>
       <c r="R37" t="n">
-        <v>1204.082626561916</v>
+        <v>1081.960564314624</v>
       </c>
       <c r="S37" t="n">
-        <v>1077.518523842332</v>
+        <v>1081.960564314624</v>
       </c>
       <c r="T37" t="n">
-        <v>1065.669658738561</v>
+        <v>1070.111699210853</v>
       </c>
       <c r="U37" t="n">
-        <v>776.5276188698598</v>
+        <v>993.9559608925239</v>
       </c>
       <c r="V37" t="n">
-        <v>734.8294322143445</v>
+        <v>952.2577742370086</v>
       </c>
       <c r="W37" t="n">
-        <v>445.4122621773839</v>
+        <v>875.8269057504195</v>
       </c>
       <c r="X37" t="n">
-        <v>217.4227112793666</v>
+        <v>647.8373548524022</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.616433686208</v>
+        <v>427.0447757088721</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1013.197809160681</v>
+        <v>1013.19780916068</v>
       </c>
       <c r="C38" t="n">
-        <v>857.221593770641</v>
+        <v>857.22159377064</v>
       </c>
       <c r="D38" t="n">
-        <v>711.9421967142621</v>
+        <v>711.9421967142612</v>
       </c>
       <c r="E38" t="n">
-        <v>539.1402456663893</v>
+        <v>539.1402456663886</v>
       </c>
       <c r="F38" t="n">
-        <v>341.1406424271534</v>
+        <v>341.1406424271527</v>
       </c>
       <c r="G38" t="n">
-        <v>137.4534535176441</v>
+        <v>137.4534535176439</v>
       </c>
       <c r="H38" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I38" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J38" t="n">
-        <v>259.5621233199658</v>
+        <v>92.15647429961275</v>
       </c>
       <c r="K38" t="n">
-        <v>395.6419388039097</v>
+        <v>226.3703180886793</v>
       </c>
       <c r="L38" t="n">
-        <v>599.0478418820812</v>
+        <v>429.7762211668508</v>
       </c>
       <c r="M38" t="n">
-        <v>857.0455386223188</v>
+        <v>880.962541765967</v>
       </c>
       <c r="N38" t="n">
-        <v>1123.831716202934</v>
+        <v>1147.748719346582</v>
       </c>
       <c r="O38" t="n">
-        <v>1575.01803680205</v>
+        <v>1575.018036802049</v>
       </c>
       <c r="P38" t="n">
-        <v>1744.142414800831</v>
+        <v>1744.14241480083</v>
       </c>
       <c r="Q38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="S38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="T38" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="U38" t="n">
-        <v>1782.302774323521</v>
+        <v>1782.30277432352</v>
       </c>
       <c r="V38" t="n">
-        <v>1664.226188530322</v>
+        <v>1664.226188530321</v>
       </c>
       <c r="W38" t="n">
-        <v>1524.44383481058</v>
+        <v>1524.443834810578</v>
       </c>
       <c r="X38" t="n">
-        <v>1363.964378099872</v>
+        <v>1363.96437809987</v>
       </c>
       <c r="Y38" t="n">
-        <v>1186.811347674431</v>
+        <v>1186.81134767443</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>727.2713279688016</v>
+        <v>628.2140366879451</v>
       </c>
       <c r="C39" t="n">
-        <v>552.8182986876747</v>
+        <v>628.2140366879451</v>
       </c>
       <c r="D39" t="n">
-        <v>403.8838890264234</v>
+        <v>479.2796270266938</v>
       </c>
       <c r="E39" t="n">
-        <v>244.6464340209679</v>
+        <v>320.0421720212383</v>
       </c>
       <c r="F39" t="n">
-        <v>98.11187604785286</v>
+        <v>173.5076140481233</v>
       </c>
       <c r="G39" t="n">
-        <v>36.45950065447406</v>
+        <v>173.5076140481233</v>
       </c>
       <c r="H39" t="n">
-        <v>36.45950065447406</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="I39" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J39" t="n">
-        <v>50.81438963805801</v>
+        <v>50.81438963805798</v>
       </c>
       <c r="K39" t="n">
-        <v>415.3245906914578</v>
+        <v>153.504006049005</v>
       </c>
       <c r="L39" t="n">
-        <v>599.725993796905</v>
+        <v>604.6903266481212</v>
       </c>
       <c r="M39" t="n">
-        <v>834.2706017409459</v>
+        <v>839.2349345921623</v>
       </c>
       <c r="N39" t="n">
-        <v>1089.43155246375</v>
+        <v>1290.421255191279</v>
       </c>
       <c r="O39" t="n">
-        <v>1300.634177438416</v>
+        <v>1501.623880165944</v>
       </c>
       <c r="P39" t="n">
-        <v>1751.820498037533</v>
+        <v>1772.505777304329</v>
       </c>
       <c r="Q39" t="n">
-        <v>1822.975032723703</v>
+        <v>1822.975032723702</v>
       </c>
       <c r="R39" t="n">
-        <v>1815.625831608453</v>
+        <v>1815.625831608452</v>
       </c>
       <c r="S39" t="n">
-        <v>1815.625831608453</v>
+        <v>1670.276379859731</v>
       </c>
       <c r="T39" t="n">
-        <v>1815.625831608453</v>
+        <v>1474.180551094238</v>
       </c>
       <c r="U39" t="n">
-        <v>1800.487928919301</v>
+        <v>1246.056346854714</v>
       </c>
       <c r="V39" t="n">
-        <v>1565.335820687558</v>
+        <v>1010.904238622971</v>
       </c>
       <c r="W39" t="n">
-        <v>1311.098463959356</v>
+        <v>756.6668818947699</v>
       </c>
       <c r="X39" t="n">
-        <v>1103.246963753824</v>
+        <v>756.6668818947699</v>
       </c>
       <c r="Y39" t="n">
-        <v>895.4866649888697</v>
+        <v>628.2140366879451</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.94491435721</v>
+        <v>123.1942348554205</v>
       </c>
       <c r="C40" t="n">
-        <v>775.94491435721</v>
+        <v>123.1942348554205</v>
       </c>
       <c r="D40" t="n">
-        <v>775.94491435721</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="E40" t="n">
-        <v>628.0318207748169</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="F40" t="n">
-        <v>481.1418732769065</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="G40" t="n">
-        <v>312.7208650886391</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1184802283098</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="I40" t="n">
-        <v>41.19542549794072</v>
+        <v>41.19542549794069</v>
       </c>
       <c r="J40" t="n">
-        <v>36.45950065447406</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="K40" t="n">
         <v>158.6686313604161</v>
@@ -7357,25 +7357,25 @@
         <v>1204.082626561916</v>
       </c>
       <c r="S40" t="n">
-        <v>1004.888099862219</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T40" t="n">
-        <v>993.0392347584484</v>
+        <v>979.2474599077732</v>
       </c>
       <c r="U40" t="n">
-        <v>916.8834964401188</v>
+        <v>903.0917215894438</v>
       </c>
       <c r="V40" t="n">
-        <v>875.1853097846035</v>
+        <v>648.4072333835569</v>
       </c>
       <c r="W40" t="n">
-        <v>798.7544412980144</v>
+        <v>358.9900633465963</v>
       </c>
       <c r="X40" t="n">
-        <v>783.7511919503686</v>
+        <v>131.0005124485789</v>
       </c>
       <c r="Y40" t="n">
-        <v>775.94491435721</v>
+        <v>123.1942348554205</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1013.19780916068</v>
+        <v>1013.197809160679</v>
       </c>
       <c r="C41" t="n">
-        <v>857.2215937706394</v>
+        <v>857.2215937706388</v>
       </c>
       <c r="D41" t="n">
-        <v>711.9421967142605</v>
+        <v>711.94219671426</v>
       </c>
       <c r="E41" t="n">
-        <v>539.1402456663882</v>
+        <v>539.1402456663875</v>
       </c>
       <c r="F41" t="n">
-        <v>341.1406424271522</v>
+        <v>341.1406424271516</v>
       </c>
       <c r="G41" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H41" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I41" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J41" t="n">
-        <v>157.0585777273102</v>
+        <v>191.9691119370241</v>
       </c>
       <c r="K41" t="n">
-        <v>608.2448983264266</v>
+        <v>326.1829557260907</v>
       </c>
       <c r="L41" t="n">
-        <v>811.650801404598</v>
+        <v>529.5888588042621</v>
       </c>
       <c r="M41" t="n">
-        <v>1069.648498144836</v>
+        <v>787.5865555444997</v>
       </c>
       <c r="N41" t="n">
-        <v>1336.434675725451</v>
+        <v>1054.372733125115</v>
       </c>
       <c r="O41" t="n">
-        <v>1575.01803680205</v>
+        <v>1292.956094201714</v>
       </c>
       <c r="P41" t="n">
         <v>1744.14241480083</v>
@@ -7445,16 +7445,16 @@
         <v>1782.30277432352</v>
       </c>
       <c r="V41" t="n">
-        <v>1664.226188530321</v>
+        <v>1664.22618853032</v>
       </c>
       <c r="W41" t="n">
         <v>1524.443834810578</v>
       </c>
       <c r="X41" t="n">
-        <v>1363.96437809987</v>
+        <v>1363.964378099869</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.81134767443</v>
+        <v>1186.811347674429</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>665.6189525754229</v>
+        <v>634.1147852417612</v>
       </c>
       <c r="C42" t="n">
-        <v>491.1659232942959</v>
+        <v>459.6617559606341</v>
       </c>
       <c r="D42" t="n">
-        <v>342.2315136330446</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="E42" t="n">
-        <v>182.9940586275891</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="F42" t="n">
-        <v>36.45950065447405</v>
+        <v>310.7273462993829</v>
       </c>
       <c r="G42" t="n">
-        <v>36.45950065447405</v>
+        <v>173.5076140481234</v>
       </c>
       <c r="H42" t="n">
-        <v>36.45950065447405</v>
+        <v>74.73245719169911</v>
       </c>
       <c r="I42" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J42" t="n">
-        <v>71.49966890485467</v>
+        <v>50.81438963805799</v>
       </c>
       <c r="K42" t="n">
-        <v>436.0098699582545</v>
+        <v>153.504006049005</v>
       </c>
       <c r="L42" t="n">
-        <v>620.4112730637016</v>
+        <v>337.9054091544522</v>
       </c>
       <c r="M42" t="n">
-        <v>854.9558810077427</v>
+        <v>572.4500170984932</v>
       </c>
       <c r="N42" t="n">
-        <v>1110.116831730547</v>
+        <v>827.6109678212978</v>
       </c>
       <c r="O42" t="n">
-        <v>1321.319456705213</v>
+        <v>1113.342941846722</v>
       </c>
       <c r="P42" t="n">
-        <v>1772.50577730433</v>
+        <v>1564.529262445839</v>
       </c>
       <c r="Q42" t="n">
         <v>1822.975032723702</v>
@@ -7515,25 +7515,25 @@
         <v>1815.625831608452</v>
       </c>
       <c r="S42" t="n">
-        <v>1815.625831608452</v>
+        <v>1670.276379859732</v>
       </c>
       <c r="T42" t="n">
-        <v>1753.973456215074</v>
+        <v>1554.253951861344</v>
       </c>
       <c r="U42" t="n">
-        <v>1738.835553525922</v>
+        <v>1326.129747621821</v>
       </c>
       <c r="V42" t="n">
-        <v>1503.683445294179</v>
+        <v>1303.963940940449</v>
       </c>
       <c r="W42" t="n">
-        <v>1249.446088565978</v>
+        <v>1049.726584212248</v>
       </c>
       <c r="X42" t="n">
-        <v>1041.594588360445</v>
+        <v>841.875084006715</v>
       </c>
       <c r="Y42" t="n">
-        <v>833.8342895954909</v>
+        <v>634.1147852417612</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>193.79781035827</v>
+        <v>183.3494481523844</v>
       </c>
       <c r="C43" t="n">
-        <v>193.79781035827</v>
+        <v>183.3494481523844</v>
       </c>
       <c r="D43" t="n">
-        <v>193.79781035827</v>
+        <v>183.3494481523844</v>
       </c>
       <c r="E43" t="n">
-        <v>193.79781035827</v>
+        <v>183.3494481523844</v>
       </c>
       <c r="F43" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="G43" t="n">
-        <v>193.79781035827</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="H43" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="I43" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="J43" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447404</v>
       </c>
       <c r="K43" t="n">
         <v>158.6686313604161</v>
@@ -7594,25 +7594,25 @@
         <v>1204.082626561916</v>
       </c>
       <c r="S43" t="n">
-        <v>1061.699900514394</v>
+        <v>999.8809706956085</v>
       </c>
       <c r="T43" t="n">
-        <v>1049.851035410623</v>
+        <v>988.0321055918374</v>
       </c>
       <c r="U43" t="n">
-        <v>973.6952970922933</v>
+        <v>750.2606333360363</v>
       </c>
       <c r="V43" t="n">
-        <v>931.997110436778</v>
+        <v>495.5761451301495</v>
       </c>
       <c r="W43" t="n">
-        <v>642.5799403998174</v>
+        <v>419.1452766435604</v>
       </c>
       <c r="X43" t="n">
-        <v>414.5903895018001</v>
+        <v>404.1420272959145</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.79781035827</v>
+        <v>183.3494481523844</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1013.19780916068</v>
+        <v>1013.197809160679</v>
       </c>
       <c r="C44" t="n">
-        <v>857.2215937706399</v>
+        <v>857.2215937706392</v>
       </c>
       <c r="D44" t="n">
-        <v>711.9421967142609</v>
+        <v>711.9421967142603</v>
       </c>
       <c r="E44" t="n">
-        <v>539.1402456663882</v>
+        <v>539.1402456663874</v>
       </c>
       <c r="F44" t="n">
-        <v>341.1406424271522</v>
+        <v>341.1406424271513</v>
       </c>
       <c r="G44" t="n">
         <v>137.4534535176441</v>
       </c>
       <c r="H44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="I44" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J44" t="n">
-        <v>259.5621233199658</v>
+        <v>92.15647429961275</v>
       </c>
       <c r="K44" t="n">
-        <v>423.8447553079255</v>
+        <v>226.3703180886793</v>
       </c>
       <c r="L44" t="n">
-        <v>627.250658386097</v>
+        <v>601.4589606512918</v>
       </c>
       <c r="M44" t="n">
-        <v>885.2483551263346</v>
+        <v>859.4566573915293</v>
       </c>
       <c r="N44" t="n">
-        <v>1336.434675725451</v>
+        <v>1126.242834972144</v>
       </c>
       <c r="O44" t="n">
-        <v>1575.01803680205</v>
+        <v>1364.826196048743</v>
       </c>
       <c r="P44" t="n">
-        <v>1744.14241480083</v>
+        <v>1533.950574047524</v>
       </c>
       <c r="Q44" t="n">
         <v>1822.975032723702</v>
@@ -7685,7 +7685,7 @@
         <v>1664.226188530321</v>
       </c>
       <c r="W44" t="n">
-        <v>1524.443834810579</v>
+        <v>1524.443834810578</v>
       </c>
       <c r="X44" t="n">
         <v>1363.96437809987</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>703.8919091126479</v>
+        <v>761.8928846801873</v>
       </c>
       <c r="C45" t="n">
-        <v>529.4388798315209</v>
+        <v>587.4398553990603</v>
       </c>
       <c r="D45" t="n">
-        <v>380.5044701702697</v>
+        <v>438.5054457378091</v>
       </c>
       <c r="E45" t="n">
-        <v>221.2670151648142</v>
+        <v>358.4867474160736</v>
       </c>
       <c r="F45" t="n">
-        <v>74.73245719169913</v>
+        <v>211.9521894429586</v>
       </c>
       <c r="G45" t="n">
-        <v>74.73245719169913</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="H45" t="n">
-        <v>74.73245719169913</v>
+        <v>74.7324571916991</v>
       </c>
       <c r="I45" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J45" t="n">
-        <v>50.814389638058</v>
+        <v>50.81438963805798</v>
       </c>
       <c r="K45" t="n">
         <v>153.504006049005</v>
       </c>
       <c r="L45" t="n">
-        <v>337.9054091544522</v>
+        <v>604.6903266481211</v>
       </c>
       <c r="M45" t="n">
-        <v>572.4500170984932</v>
+        <v>839.2349345921621</v>
       </c>
       <c r="N45" t="n">
-        <v>827.6109678212978</v>
+        <v>1094.395885314967</v>
       </c>
       <c r="O45" t="n">
-        <v>1113.342941846723</v>
+        <v>1545.582205914083</v>
       </c>
       <c r="P45" t="n">
-        <v>1564.529262445839</v>
+        <v>1772.505777304329</v>
       </c>
       <c r="Q45" t="n">
         <v>1822.975032723702</v>
@@ -7752,25 +7752,25 @@
         <v>1815.625831608452</v>
       </c>
       <c r="S45" t="n">
-        <v>1815.625831608452</v>
+        <v>1670.276379859731</v>
       </c>
       <c r="T45" t="n">
-        <v>1815.625831608452</v>
+        <v>1474.180551094238</v>
       </c>
       <c r="U45" t="n">
-        <v>1777.108510063147</v>
+        <v>1246.056346854714</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.956401831404</v>
+        <v>1223.890540173343</v>
       </c>
       <c r="W45" t="n">
-        <v>1287.719045103203</v>
+        <v>969.6531834451412</v>
       </c>
       <c r="X45" t="n">
-        <v>1079.86754489767</v>
+        <v>969.6531834451412</v>
       </c>
       <c r="Y45" t="n">
-        <v>872.107246132716</v>
+        <v>761.8928846801873</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>362.2188185465373</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="C46" t="n">
-        <v>362.2188185465373</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="D46" t="n">
-        <v>362.2188185465373</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="E46" t="n">
-        <v>362.2188185465373</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="F46" t="n">
-        <v>362.2188185465373</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="G46" t="n">
-        <v>193.79781035827</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="H46" t="n">
-        <v>41.1954254979407</v>
+        <v>154.5320715755519</v>
       </c>
       <c r="I46" t="n">
-        <v>41.1954254979407</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="J46" t="n">
-        <v>36.45950065447405</v>
+        <v>36.45950065447403</v>
       </c>
       <c r="K46" t="n">
         <v>158.6686313604161</v>
@@ -7831,25 +7831,25 @@
         <v>1204.082626561916</v>
       </c>
       <c r="S46" t="n">
-        <v>999.8809706956085</v>
+        <v>1204.082626561916</v>
       </c>
       <c r="T46" t="n">
-        <v>775.045804041466</v>
+        <v>1192.233761458145</v>
       </c>
       <c r="U46" t="n">
-        <v>503.1574006294462</v>
+        <v>903.0917215894435</v>
       </c>
       <c r="V46" t="n">
-        <v>461.4592139739308</v>
+        <v>648.4072333835567</v>
       </c>
       <c r="W46" t="n">
-        <v>385.0283454873417</v>
+        <v>571.9763648969675</v>
       </c>
       <c r="X46" t="n">
-        <v>370.0250961396959</v>
+        <v>343.9868139989502</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.2188185465373</v>
+        <v>336.1805364057916</v>
       </c>
     </row>
   </sheetData>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>77.58769599231783</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>203.6787313327268</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-4.121147867408581e-13</v>
       </c>
       <c r="R14" t="n">
         <v>39.95243602841495</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>103.0902919697672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>100.5884393629592</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.6787313327268</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>58.68794272922304</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>144.9907886035033</v>
       </c>
       <c r="P18" t="n">
-        <v>203.678731332727</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.95243602841495</v>
+        <v>39.95243602841498</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>100.5884393629593</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>203.678731332727</v>
+        <v>103.0902919697675</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>54.22282615449325</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>54.22282615449146</v>
       </c>
       <c r="R23" t="n">
         <v>39.95243602841495</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>47.82426975137079</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>185.7567599602738</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>72.14479752694444</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,25 +9878,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>396.4052356669</v>
+        <v>255.0930355818301</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>39.95243602841495</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>369.7097535367198</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.57496266958151</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,16 +10118,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>122.0766524439558</v>
+        <v>375.1620083853504</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,19 +10197,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>74.26895887005293</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>137.1039514958389</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>370.6412518223325</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>186.9911079209763</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,10 +10437,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>200.3599942104618</v>
       </c>
       <c r="O33" t="n">
-        <v>74.26895887005293</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>135.448649208891</v>
       </c>
       <c r="K35" t="n">
-        <v>190.8713002134061</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>250.2832500211563</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>39.95243602841495</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>75.28217075834209</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>148.9974330872568</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>198.0054241174865</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>242.4077733580306</v>
       </c>
       <c r="P36" t="n">
-        <v>304.051172068583</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.884819893815518</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>195.1400240998774</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>214.7504641641591</v>
+        <v>190.5918751301697</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>269.4797146400697</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>198.0054241174865</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>304.0511720685832</v>
+        <v>121.9254918052176</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.89422148161353</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>65.55768022999739</v>
+        <v>100.8208460983953</v>
       </c>
       <c r="K41" t="n">
-        <v>320.1742190000504</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>284.9110531316524</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>20.8942214816128</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>75.28217075834215</v>
       </c>
       <c r="P42" t="n">
-        <v>304.0511720685831</v>
+        <v>304.051172068583</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>30.37251333221533</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>173.4169085701424</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>186.2627707257589</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>39.95243602841495</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>269.4797146400697</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>75.28217075834237</v>
+        <v>242.4077733580306</v>
       </c>
       <c r="P45" t="n">
-        <v>304.0511720685831</v>
+        <v>77.52314256467363</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.6475273934649</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>54.99712869709042</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.8440558022461</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.7897314716957</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>281.4204412852648</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.22031640604275</v>
+        <v>14.22031640604272</v>
       </c>
       <c r="T11" t="n">
-        <v>79.77012426485226</v>
+        <v>79.77012426485211</v>
       </c>
       <c r="U11" t="n">
-        <v>120.0356600810325</v>
+        <v>120.0356600810324</v>
       </c>
       <c r="V11" t="n">
-        <v>168.5626505649031</v>
+        <v>196.6659442001192</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>218.1546544473973</v>
       </c>
       <c r="X11" t="n">
-        <v>238.6447864084534</v>
+        <v>238.6447864084533</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.1516243860379</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>234.1865775009919</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>223.5967273506673</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>198.5270451336493</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.7897314716959</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>281.4204412852649</v>
       </c>
       <c r="H14" t="n">
-        <v>179.7541375993905</v>
+        <v>179.7541375993906</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.22031640604274</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>79.77012426485214</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0356600810323</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>83.92781228702185</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.6447864084534</v>
+        <v>238.6447864084535</v>
       </c>
       <c r="Y14" t="n">
-        <v>255.1516243860379</v>
+        <v>255.151624386038</v>
       </c>
     </row>
     <row r="15">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>53.14379191401611</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>53.1437919140182</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>53.14379191401837</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>53.14379191401686</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>81927.63387170385</v>
+      </c>
+      <c r="C2" t="n">
         <v>81927.63387170382</v>
       </c>
-      <c r="C2" t="n">
-        <v>81927.63387170383</v>
-      </c>
       <c r="D2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.6338717038</v>
       </c>
       <c r="E2" t="n">
-        <v>70727.04636680374</v>
+        <v>70727.04636680371</v>
       </c>
       <c r="F2" t="n">
         <v>70727.04636680374</v>
       </c>
       <c r="G2" t="n">
-        <v>81681.15240279274</v>
+        <v>81681.15240279281</v>
       </c>
       <c r="H2" t="n">
-        <v>81681.15240279268</v>
+        <v>81681.15240279275</v>
       </c>
       <c r="I2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642834</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642836</v>
@@ -26378,28 +26378,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85476.90224663843</v>
+        <v>85476.90224663865</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3641.530171502713</v>
+        <v>3641.530171502638</v>
       </c>
       <c r="J3" t="n">
-        <v>115659.659060617</v>
+        <v>115659.6590606171</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>85476.90224663848</v>
+        <v>85476.90224663867</v>
       </c>
       <c r="M3" t="n">
         <v>83208.24858125568</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>161968.6355739665</v>
       </c>
       <c r="F4" t="n">
-        <v>161968.6355739665</v>
+        <v>161968.6355739664</v>
       </c>
       <c r="G4" t="n">
-        <v>224491.0662502183</v>
+        <v>224491.0662502184</v>
       </c>
       <c r="H4" t="n">
-        <v>224491.0662502183</v>
+        <v>224491.0662502184</v>
       </c>
       <c r="I4" t="n">
         <v>226687.8534307163</v>
@@ -26442,13 +26442,13 @@
         <v>220613.4094251413</v>
       </c>
       <c r="K4" t="n">
-        <v>220613.4094251413</v>
+        <v>220613.4094251414</v>
       </c>
       <c r="L4" t="n">
         <v>220613.4094251414</v>
       </c>
       <c r="M4" t="n">
-        <v>225356.8859697092</v>
+        <v>225356.8859697093</v>
       </c>
       <c r="N4" t="n">
         <v>225356.8859697093</v>
@@ -26479,7 +26479,7 @@
         <v>47968.47435149254</v>
       </c>
       <c r="F5" t="n">
-        <v>47968.47435149255</v>
+        <v>47968.47435149254</v>
       </c>
       <c r="G5" t="n">
         <v>56950.92147020836</v>
@@ -26488,28 +26488,28 @@
         <v>56950.92147020836</v>
       </c>
       <c r="I5" t="n">
-        <v>57783.51849875204</v>
+        <v>57783.51849875203</v>
       </c>
       <c r="J5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324267</v>
       </c>
       <c r="K5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324268</v>
       </c>
       <c r="L5" t="n">
-        <v>73639.8466132427</v>
+        <v>73639.84661324268</v>
       </c>
       <c r="M5" t="n">
         <v>60597.62160138966</v>
       </c>
       <c r="N5" t="n">
-        <v>60597.62160138968</v>
+        <v>60597.62160138967</v>
       </c>
       <c r="O5" t="n">
         <v>60597.62160138966</v>
       </c>
       <c r="P5" t="n">
-        <v>60597.62160138966</v>
+        <v>60597.62160138965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-409475.3269538336</v>
+        <v>-409479.7405317017</v>
       </c>
       <c r="C6" t="n">
-        <v>-409475.3269538336</v>
+        <v>-409479.7405317018</v>
       </c>
       <c r="D6" t="n">
-        <v>-409475.3269538336</v>
+        <v>-409479.7405317018</v>
       </c>
       <c r="E6" t="n">
-        <v>-909834.8045859269</v>
+        <v>-910119.2328514175</v>
       </c>
       <c r="F6" t="n">
-        <v>-139210.0635586553</v>
+        <v>-139494.4918241458</v>
       </c>
       <c r="G6" t="n">
-        <v>-285237.7375642724</v>
+        <v>-285248.3131788636</v>
       </c>
       <c r="H6" t="n">
-        <v>-199760.835317634</v>
+        <v>-199771.4109322249</v>
       </c>
       <c r="I6" t="n">
-        <v>-206008.7251145427</v>
+        <v>-206008.7251145426</v>
       </c>
       <c r="J6" t="n">
         <v>-327808.7381125727</v>
       </c>
       <c r="K6" t="n">
-        <v>-212149.0790519557</v>
+        <v>-212149.0790519558</v>
       </c>
       <c r="L6" t="n">
-        <v>-297625.9812985942</v>
+        <v>-297625.9812985944</v>
       </c>
       <c r="M6" t="n">
-        <v>-287058.5791659262</v>
+        <v>-287058.5791659263</v>
       </c>
       <c r="N6" t="n">
         <v>-203850.3305846706</v>
       </c>
       <c r="O6" t="n">
-        <v>-203850.3305846706</v>
+        <v>-203850.3305846704</v>
       </c>
       <c r="P6" t="n">
         <v>-203850.3305846705</v>
@@ -26695,31 +26695,31 @@
         <v>131.0863142700157</v>
       </c>
       <c r="F2" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="G2" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H2" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I2" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="J2" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="K2" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="O2" t="n">
         <v>210.8564385348678</v>
@@ -26753,7 +26753,7 @@
         <v>695.5005125138342</v>
       </c>
       <c r="H3" t="n">
-        <v>695.5005125138342</v>
+        <v>695.5005125138341</v>
       </c>
       <c r="I3" t="n">
         <v>695.5005125138342</v>
@@ -26799,37 +26799,37 @@
         <v>358.3267734263981</v>
       </c>
       <c r="F4" t="n">
-        <v>358.3267734263982</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="G4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="H4" t="n">
-        <v>358.3267734263983</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="I4" t="n">
-        <v>372.0208035011299</v>
+        <v>372.0208035011295</v>
       </c>
       <c r="J4" t="n">
-        <v>814.0705316073238</v>
+        <v>814.0705316073236</v>
       </c>
       <c r="K4" t="n">
-        <v>814.0705316073238</v>
+        <v>814.0705316073236</v>
       </c>
       <c r="L4" t="n">
-        <v>814.0705316073238</v>
+        <v>814.0705316073236</v>
       </c>
       <c r="M4" t="n">
         <v>455.7437581809255</v>
       </c>
       <c r="N4" t="n">
-        <v>455.7437581809257</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="O4" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="P4" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809254</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>104.0103107265696</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.69403007473164</v>
+        <v>13.69403007473136</v>
       </c>
       <c r="J4" t="n">
-        <v>442.0497281061939</v>
+        <v>442.0497281061941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.846127808298</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>114.7651019462578</v>
       </c>
       <c r="E12" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="F12" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>97.78740528786003</v>
       </c>
       <c r="I12" t="n">
-        <v>37.89022697185283</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>7.275709104097473</v>
       </c>
       <c r="S12" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="T12" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>131.0863142700157</v>
       </c>
-      <c r="W12" t="n">
-        <v>84.15058407850267</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
     </row>
     <row r="13">
@@ -28260,16 +28260,16 @@
         <v>131.0863142700157</v>
       </c>
       <c r="G13" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="I13" t="n">
-        <v>117.7338241830654</v>
+        <v>61.66787787272515</v>
       </c>
       <c r="J13" t="n">
-        <v>4.688565595032003</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,13 +28296,13 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="T13" t="n">
         <v>131.0863142700157</v>
       </c>
       <c r="U13" t="n">
-        <v>70.33180236464361</v>
+        <v>131.0863142700157</v>
       </c>
       <c r="V13" t="n">
         <v>131.0863142700157</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="C14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="D14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="E14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="F14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="G14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="I14" t="n">
         <v>102.683795063111</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="T14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="U14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="V14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="W14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="X14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
     </row>
     <row r="15">
@@ -28406,22 +28406,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="G15" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="H15" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>37.89022697185282</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.275709104097459</v>
       </c>
       <c r="S15" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="T15" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="U15" t="n">
-        <v>131.0863142700157</v>
+        <v>43.57596599225027</v>
       </c>
       <c r="V15" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="X15" t="n">
-        <v>84.15058407850191</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.0863142700156</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="C16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="E16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="F16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="G16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="I16" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28533,25 +28533,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S16" t="n">
-        <v>75.02036795967578</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="T16" t="n">
-        <v>131.0863142700157</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>131.0863142700157</v>
+        <v>70.33180236464449</v>
       </c>
       <c r="V16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="W16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="X16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.0863142700157</v>
+        <v>131.0863142700156</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I17" t="n">
         <v>102.683795063111</v>
@@ -28618,19 +28618,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>37.89022697185282</v>
@@ -28691,10 +28691,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.8429621971285</v>
@@ -28703,13 +28703,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>69.23287198423904</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>91.36380178835341</v>
       </c>
     </row>
     <row r="19">
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28773,16 +28773,16 @@
         <v>202.1596393076441</v>
       </c>
       <c r="T19" t="n">
-        <v>222.5868149876011</v>
+        <v>44.50115183114056</v>
       </c>
       <c r="U19" t="n">
-        <v>227.0936000204813</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V19" t="n">
-        <v>237.9324420783137</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I20" t="n">
-        <v>102.683795063111</v>
+        <v>102.6837950631111</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,19 +28855,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.89022697185282</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.275709104097473</v>
       </c>
       <c r="S21" t="n">
         <v>143.8959572312332</v>
       </c>
       <c r="T21" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8429621971285</v>
+        <v>76.15413729635776</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>69.23287198423904</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28959,7 +28959,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>15.0830883770715</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28968,19 +28968,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I22" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.688565595032003</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,22 +29007,22 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.5868149876011</v>
       </c>
       <c r="U22" t="n">
-        <v>237.9324420783137</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>237.9324420783137</v>
+        <v>61.92084296973107</v>
       </c>
       <c r="W22" t="n">
-        <v>237.9324420783137</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="C23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="D23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="E23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="F23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="G23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="H23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="I23" t="n">
         <v>102.683795063111</v>
@@ -29092,19 +29092,19 @@
         <v>210.8564385348678</v>
       </c>
       <c r="U23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="V23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="X23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29135,7 +29135,7 @@
         <v>97.78740528786001</v>
       </c>
       <c r="I24" t="n">
-        <v>37.89022697185282</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.275709104097459</v>
       </c>
       <c r="S24" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>24.57327100335084</v>
+        <v>102.0901097919155</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29211,13 +29211,13 @@
         <v>166.7367981063846</v>
       </c>
       <c r="H25" t="n">
-        <v>151.076361011726</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.9008416248183</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T25" t="n">
-        <v>222.5868149876011</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.1425536032289</v>
       </c>
       <c r="V25" t="n">
-        <v>237.9324420783137</v>
+        <v>237.9324420783139</v>
       </c>
       <c r="W25" t="n">
-        <v>203.0752796723786</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I26" t="n">
         <v>102.683795063111</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="27">
@@ -29430,34 +29430,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="K28" t="n">
-        <v>73.80835399930916</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>73.80835399930834</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I29" t="n">
         <v>102.683795063111</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y29" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="30">
@@ -29667,34 +29667,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="C31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="D31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="E31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="F31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="G31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="H31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="I31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="J31" t="n">
-        <v>73.80835399930919</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>69.11978840427562</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29712,31 +29712,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="R31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="S31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="T31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="U31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="V31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="W31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="X31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.8461278082981</v>
+        <v>106.8461278082982</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="C32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="D32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="E32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="F32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="G32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="I32" t="n">
         <v>102.683795063111</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="T32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="U32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="V32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="W32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="X32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="C34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="D34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="E34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="F34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="G34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="H34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="I34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="J34" t="n">
-        <v>73.80835399930827</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>69.11978840427517</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29949,31 +29949,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="R34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="S34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="T34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="U34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="V34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="W34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="X34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.8461278082982</v>
+        <v>106.8461278082983</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="C35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="D35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="E35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="F35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="G35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="H35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="I35" t="n">
         <v>102.683795063111</v>
@@ -30037,22 +30037,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="U35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="V35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="W35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="X35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="Y35" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
     </row>
     <row r="36">
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>63.04424998437693</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.89022697185282</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,10 +30116,10 @@
         <v>143.8959572312332</v>
       </c>
       <c r="T36" t="n">
-        <v>41.24116452447731</v>
+        <v>194.1348704778385</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30147,16 +30147,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>53.79106138385878</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H37" t="n">
         <v>151.076361011726</v>
@@ -30165,7 +30165,7 @@
         <v>117.7338241830654</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.9008416248183</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>76.86117761525605</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T37" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="V37" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="C38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="D38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="E38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="F38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="G38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="H38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="I38" t="n">
         <v>102.683795063111</v>
@@ -30274,22 +30274,22 @@
         <v>145.3066306760584</v>
       </c>
       <c r="T38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="U38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="V38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="W38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="X38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="Y38" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
     </row>
     <row r="39">
@@ -30299,10 +30299,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>74.8116832893019</v>
+        <v>135.8475349287469</v>
       </c>
       <c r="H39" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.89022697185282</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,13 +30350,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>78.51437902254781</v>
       </c>
     </row>
     <row r="40">
@@ -30384,22 +30384,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>67.43665175430733</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.7338241830654</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S40" t="n">
-        <v>4.957057874944695</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
       <c r="V40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.8564385348678</v>
+        <v>210.8564385348679</v>
       </c>
     </row>
     <row r="41">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -30545,19 +30545,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>97.78740528786001</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>37.89022697185282</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,16 +30587,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>133.0990188383938</v>
+        <v>79.27266675943511</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
         <v>210.8564385348678</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30627,19 +30627,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7367981063846</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I43" t="n">
         <v>117.7338241830654</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,22 +30666,22 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S43" t="n">
-        <v>61.20074052059746</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="U43" t="n">
+        <v>50.85686193677105</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>210.8564385348678</v>
       </c>
-      <c r="V43" t="n">
+      <c r="X43" t="n">
         <v>210.8564385348678</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -30782,13 +30782,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>78.42656911688287</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8475349287469</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>97.78740528786001</v>
@@ -30824,22 +30824,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>143.8959572312332</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>194.1348704778385</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>187.710813867276</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -30867,16 +30867,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7367981063846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.076361011726</v>
       </c>
       <c r="I46" t="n">
-        <v>117.7338241830654</v>
+        <v>0.8419789711983441</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.688565595031989</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,22 +30903,22 @@
         <v>120.9008416248183</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.1596393076441</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>210.8564385348678</v>
       </c>
       <c r="U46" t="n">
-        <v>17.08110009211447</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>210.8564385348678</v>
       </c>
       <c r="X46" t="n">
-        <v>210.8564385348678</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>210.8564385348678</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.795981959854608</v>
+        <v>2.795981959854607</v>
       </c>
       <c r="H20" t="n">
         <v>28.63435024636101</v>
       </c>
       <c r="I20" t="n">
-        <v>107.7920945072949</v>
+        <v>107.7920945072948</v>
       </c>
       <c r="J20" t="n">
         <v>237.3054738652102</v>
       </c>
       <c r="K20" t="n">
-        <v>355.6593902258559</v>
+        <v>355.6593902258558</v>
       </c>
       <c r="L20" t="n">
         <v>441.2269231297564</v>
       </c>
       <c r="M20" t="n">
-        <v>490.9499673083208</v>
+        <v>490.9499673083207</v>
       </c>
       <c r="N20" t="n">
-        <v>498.8940510517577</v>
+        <v>498.8940510517576</v>
       </c>
       <c r="O20" t="n">
-        <v>471.0915054384534</v>
+        <v>471.0915054384533</v>
       </c>
       <c r="P20" t="n">
-        <v>402.0657008045428</v>
+        <v>402.0657008045426</v>
       </c>
       <c r="Q20" t="n">
         <v>301.9345968672495</v>
       </c>
       <c r="R20" t="n">
-        <v>175.6331017857172</v>
+        <v>175.6331017857171</v>
       </c>
       <c r="S20" t="n">
-        <v>63.71343891018694</v>
+        <v>63.71343891018693</v>
       </c>
       <c r="T20" t="n">
         <v>12.23941102926355</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2236785567883686</v>
+        <v>0.2236785567883685</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>1.495982234463719</v>
       </c>
       <c r="H21" t="n">
-        <v>14.44803894863645</v>
+        <v>14.44803894863644</v>
       </c>
       <c r="I21" t="n">
-        <v>51.50640587956226</v>
+        <v>51.50640587956225</v>
       </c>
       <c r="J21" t="n">
         <v>141.3375145288727</v>
       </c>
       <c r="K21" t="n">
-        <v>241.5683242379419</v>
+        <v>241.5683242379418</v>
       </c>
       <c r="L21" t="n">
-        <v>324.8184233207299</v>
+        <v>324.8184233207298</v>
       </c>
       <c r="M21" t="n">
-        <v>379.0477793200396</v>
+        <v>379.0477793200395</v>
       </c>
       <c r="N21" t="n">
         <v>389.0800461467722</v>
       </c>
       <c r="O21" t="n">
-        <v>355.9322292673393</v>
+        <v>355.9322292673392</v>
       </c>
       <c r="P21" t="n">
-        <v>285.6669935266728</v>
+        <v>285.6669935266727</v>
       </c>
       <c r="Q21" t="n">
         <v>190.9608199641758</v>
       </c>
       <c r="R21" t="n">
-        <v>92.88212504854567</v>
+        <v>92.88212504854566</v>
       </c>
       <c r="S21" t="n">
-        <v>27.78721387260459</v>
+        <v>27.78721387260458</v>
       </c>
       <c r="T21" t="n">
-        <v>6.029858216983145</v>
+        <v>6.029858216983144</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09841988384629734</v>
+        <v>0.09841988384629732</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,25 +32628,25 @@
         <v>37.71665074419285</v>
       </c>
       <c r="J22" t="n">
-        <v>88.67061452164079</v>
+        <v>88.67061452164077</v>
       </c>
       <c r="K22" t="n">
         <v>145.7130581955213</v>
       </c>
       <c r="L22" t="n">
-        <v>186.4625472401844</v>
+        <v>186.4625472401843</v>
       </c>
       <c r="M22" t="n">
-        <v>196.5986120864925</v>
+        <v>196.5986120864924</v>
       </c>
       <c r="N22" t="n">
-        <v>191.92393651058</v>
+        <v>191.9239365105799</v>
       </c>
       <c r="O22" t="n">
-        <v>177.2728191568049</v>
+        <v>177.2728191568048</v>
       </c>
       <c r="P22" t="n">
-        <v>151.6875216144926</v>
+        <v>151.6875216144925</v>
       </c>
       <c r="Q22" t="n">
         <v>105.020577389589</v>
@@ -32658,10 +32658,10 @@
         <v>21.85695872932819</v>
       </c>
       <c r="T22" t="n">
-        <v>5.35877444068036</v>
+        <v>5.358774440680359</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06840988647677065</v>
+        <v>0.06840988647677064</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.49988786220598</v>
+        <v>140.5909232026148</v>
       </c>
       <c r="K12" t="n">
-        <v>103.7268852635828</v>
+        <v>181.3145812559007</v>
       </c>
       <c r="L12" t="n">
         <v>186.2640435408557</v>
@@ -35504,7 +35504,7 @@
         <v>213.3359848228948</v>
       </c>
       <c r="P12" t="n">
-        <v>355.3713174450693</v>
+        <v>151.6925861123425</v>
       </c>
       <c r="Q12" t="n">
         <v>50.97904587815424</v>
@@ -35665,7 +35665,7 @@
         <v>170.8327050492732</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.62890699279998</v>
+        <v>79.62890699279957</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>186.2640435408557</v>
       </c>
       <c r="M15" t="n">
-        <v>236.9137453980213</v>
+        <v>340.0040373677884</v>
       </c>
       <c r="N15" t="n">
-        <v>257.738334063439</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="O15" t="n">
         <v>213.3359848228948</v>
@@ -35744,7 +35744,7 @@
         <v>151.6925861123426</v>
       </c>
       <c r="Q15" t="n">
-        <v>254.6577772108811</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>14.49988786220601</v>
       </c>
       <c r="K18" t="n">
-        <v>103.7268852635829</v>
+        <v>162.4148279928059</v>
       </c>
       <c r="L18" t="n">
         <v>186.2640435408557</v>
@@ -35975,10 +35975,10 @@
         <v>257.738334063439</v>
       </c>
       <c r="O18" t="n">
-        <v>213.3359848228948</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="P18" t="n">
-        <v>355.3713174450696</v>
+        <v>151.6925861123426</v>
       </c>
       <c r="Q18" t="n">
         <v>50.97904587815427</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>56.25956933852396</v>
+        <v>56.2595693385239</v>
       </c>
       <c r="K20" t="n">
         <v>135.5695391808753</v>
       </c>
       <c r="L20" t="n">
-        <v>205.4605081597692</v>
+        <v>205.4605081597691</v>
       </c>
       <c r="M20" t="n">
-        <v>260.6037340810481</v>
+        <v>260.6037340810479</v>
       </c>
       <c r="N20" t="n">
-        <v>269.4809874551668</v>
+        <v>269.4809874551667</v>
       </c>
       <c r="O20" t="n">
-        <v>240.9932940167667</v>
+        <v>240.9932940167666</v>
       </c>
       <c r="P20" t="n">
-        <v>170.8327050492732</v>
+        <v>170.8327050492731</v>
       </c>
       <c r="Q20" t="n">
         <v>79.62890699279998</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.49988786220601</v>
+        <v>14.49988786220598</v>
       </c>
       <c r="K21" t="n">
-        <v>103.7268852635829</v>
+        <v>103.7268852635828</v>
       </c>
       <c r="L21" t="n">
         <v>186.2640435408557</v>
       </c>
       <c r="M21" t="n">
-        <v>236.9137453980213</v>
+        <v>236.9137453980212</v>
       </c>
       <c r="N21" t="n">
-        <v>257.738334063439</v>
+        <v>358.3267734263981</v>
       </c>
       <c r="O21" t="n">
         <v>213.3359848228948</v>
       </c>
       <c r="P21" t="n">
-        <v>355.3713174450696</v>
+        <v>254.78287808211</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.97904587815427</v>
+        <v>50.97904587815424</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>214.0525725005005</v>
       </c>
       <c r="M22" t="n">
-        <v>236.1824890483331</v>
+        <v>236.182489048333</v>
       </c>
       <c r="N22" t="n">
-        <v>236.0561088898086</v>
+        <v>236.0561088898085</v>
       </c>
       <c r="O22" t="n">
         <v>201.8579470708445</v>
       </c>
       <c r="P22" t="n">
-        <v>148.9660808793861</v>
+        <v>148.966080879386</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.85853413789458</v>
+        <v>18.85853413789457</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>135.5695391808753</v>
       </c>
       <c r="L23" t="n">
-        <v>259.6833343142624</v>
+        <v>205.4605081597692</v>
       </c>
       <c r="M23" t="n">
         <v>260.6037340810481</v>
@@ -36376,7 +36376,7 @@
         <v>170.8327050492732</v>
       </c>
       <c r="Q23" t="n">
-        <v>79.62890699279998</v>
+        <v>133.8517331472914</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.3241576135768</v>
+        <v>14.49988786220601</v>
       </c>
       <c r="K24" t="n">
         <v>103.7268852635829</v>
       </c>
       <c r="L24" t="n">
-        <v>186.2640435408557</v>
+        <v>372.0208035011295</v>
       </c>
       <c r="M24" t="n">
         <v>236.9137453980213</v>
       </c>
       <c r="N24" t="n">
-        <v>257.738334063439</v>
+        <v>329.8831315903834</v>
       </c>
       <c r="O24" t="n">
         <v>213.3359848228948</v>
@@ -36455,7 +36455,7 @@
         <v>151.6925861123426</v>
       </c>
       <c r="Q24" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>459.7149517520401</v>
       </c>
       <c r="L26" t="n">
-        <v>601.8657438266691</v>
+        <v>460.5535437415993</v>
       </c>
       <c r="M26" t="n">
         <v>260.6037340810481</v>
       </c>
       <c r="N26" t="n">
-        <v>269.4809874551668</v>
+        <v>706.827911867151</v>
       </c>
       <c r="O26" t="n">
         <v>621.793475279512</v>
       </c>
       <c r="P26" t="n">
-        <v>492.6314132207559</v>
+        <v>170.8327050492732</v>
       </c>
       <c r="Q26" t="n">
         <v>291.9438976527047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>25.76398384456749</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>140.5909232026148</v>
+        <v>14.49988786220601</v>
       </c>
       <c r="K27" t="n">
         <v>368.1921222761615</v>
       </c>
       <c r="L27" t="n">
-        <v>186.2640435408557</v>
+        <v>557.1043888443148</v>
       </c>
       <c r="M27" t="n">
-        <v>606.6234989347411</v>
+        <v>236.9137453980213</v>
       </c>
       <c r="N27" t="n">
-        <v>257.738334063439</v>
+        <v>274.3132967330205</v>
       </c>
       <c r="O27" t="n">
         <v>607.1983040996244</v>
       </c>
       <c r="P27" t="n">
-        <v>151.6925861123426</v>
+        <v>470.1553547522797</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>102.1575622132662</v>
       </c>
       <c r="K28" t="n">
-        <v>197.2519203689476</v>
+        <v>123.4435663696384</v>
       </c>
       <c r="L28" t="n">
         <v>214.0525725005005</v>
@@ -36765,7 +36765,7 @@
         <v>236.0561088898086</v>
       </c>
       <c r="O28" t="n">
-        <v>201.8579470708445</v>
+        <v>275.6663010701529</v>
       </c>
       <c r="P28" t="n">
         <v>148.9660808793861</v>
@@ -36838,16 +36838,16 @@
         <v>623.1217227102196</v>
       </c>
       <c r="M29" t="n">
-        <v>260.6037340810481</v>
+        <v>710.1172675738806</v>
       </c>
       <c r="N29" t="n">
-        <v>391.5576398991226</v>
+        <v>644.6429958405172</v>
       </c>
       <c r="O29" t="n">
-        <v>621.793475279512</v>
+        <v>240.9932940167667</v>
       </c>
       <c r="P29" t="n">
-        <v>492.6314132207559</v>
+        <v>170.8327050492732</v>
       </c>
       <c r="Q29" t="n">
         <v>291.9438976527047</v>
@@ -36917,19 +36917,19 @@
         <v>557.1043888443148</v>
       </c>
       <c r="M30" t="n">
-        <v>236.9137453980213</v>
+        <v>702.6188091480212</v>
       </c>
       <c r="N30" t="n">
         <v>257.738334063439</v>
       </c>
       <c r="O30" t="n">
-        <v>287.6049436929478</v>
+        <v>213.3359848228948</v>
       </c>
       <c r="P30" t="n">
-        <v>470.1553547522797</v>
+        <v>288.7965376081815</v>
       </c>
       <c r="Q30" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.1197884042772</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>123.4435663696384</v>
+        <v>192.5633547739141</v>
       </c>
       <c r="L31" t="n">
         <v>214.0525725005005</v>
@@ -37008,7 +37008,7 @@
         <v>148.9660808793861</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.7046619461927</v>
+        <v>125.7046619461928</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.3561845105977</v>
+        <v>56.25956933852396</v>
       </c>
       <c r="K32" t="n">
         <v>459.7149517520401</v>
       </c>
       <c r="L32" t="n">
-        <v>576.1017599821017</v>
+        <v>205.4605081597692</v>
       </c>
       <c r="M32" t="n">
-        <v>260.6037340810481</v>
+        <v>710.1172675738806</v>
       </c>
       <c r="N32" t="n">
-        <v>269.4809874551668</v>
+        <v>706.827911867151</v>
       </c>
       <c r="O32" t="n">
         <v>621.793475279512</v>
       </c>
       <c r="P32" t="n">
-        <v>492.6314132207559</v>
+        <v>170.8327050492732</v>
       </c>
       <c r="Q32" t="n">
-        <v>291.9438976527047</v>
+        <v>266.6200149137763</v>
       </c>
       <c r="R32" t="n">
         <v>25.76398384456749</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>140.5909232026148</v>
+        <v>14.49988786220601</v>
       </c>
       <c r="K33" t="n">
         <v>368.1921222761615</v>
@@ -37157,10 +37157,10 @@
         <v>236.9137453980213</v>
       </c>
       <c r="N33" t="n">
-        <v>257.738334063439</v>
+        <v>458.0983282739007</v>
       </c>
       <c r="O33" t="n">
-        <v>287.6049436929478</v>
+        <v>213.3359848228948</v>
       </c>
       <c r="P33" t="n">
         <v>470.1553547522797</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.11978840427628</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>123.4435663696384</v>
@@ -37233,7 +37233,7 @@
         <v>214.0525725005005</v>
       </c>
       <c r="M34" t="n">
-        <v>236.1824890483331</v>
+        <v>305.3022774526082</v>
       </c>
       <c r="N34" t="n">
         <v>236.0561088898086</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>225.3561845105977</v>
+        <v>191.708218547415</v>
       </c>
       <c r="K35" t="n">
-        <v>326.4408393942814</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L35" t="n">
-        <v>205.4605081597692</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="M35" t="n">
         <v>260.6037340810481</v>
@@ -37327,7 +37327,7 @@
         <v>79.62890699279998</v>
       </c>
       <c r="R35" t="n">
-        <v>25.76398384456749</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>14.49988786220601</v>
       </c>
       <c r="K36" t="n">
-        <v>179.0090560219249</v>
+        <v>103.7268852635829</v>
       </c>
       <c r="L36" t="n">
         <v>186.2640435408557</v>
       </c>
       <c r="M36" t="n">
-        <v>236.9137453980213</v>
+        <v>385.911178485278</v>
       </c>
       <c r="N36" t="n">
-        <v>257.738334063439</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="O36" t="n">
-        <v>213.3359848228948</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="P36" t="n">
-        <v>455.7437581809255</v>
+        <v>151.6925861123426</v>
       </c>
       <c r="Q36" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>225.3561845105977</v>
+        <v>56.25956933852396</v>
       </c>
       <c r="K38" t="n">
-        <v>137.4543590746908</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L38" t="n">
         <v>205.4605081597692</v>
       </c>
       <c r="M38" t="n">
-        <v>260.6037340810481</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="N38" t="n">
         <v>269.4809874551668</v>
       </c>
       <c r="O38" t="n">
-        <v>455.7437581809257</v>
+        <v>431.5851691469364</v>
       </c>
       <c r="P38" t="n">
         <v>170.8327050492732</v>
@@ -37622,25 +37622,25 @@
         <v>14.49988786220601</v>
       </c>
       <c r="K39" t="n">
-        <v>368.1921222761615</v>
+        <v>103.7268852635829</v>
       </c>
       <c r="L39" t="n">
-        <v>186.2640435408557</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="M39" t="n">
         <v>236.9137453980213</v>
       </c>
       <c r="N39" t="n">
-        <v>257.738334063439</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="O39" t="n">
         <v>213.3359848228948</v>
       </c>
       <c r="P39" t="n">
-        <v>455.7437581809257</v>
+        <v>273.6180779175602</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.87326735976779</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.8172495685213</v>
+        <v>157.0804154369193</v>
       </c>
       <c r="K41" t="n">
-        <v>455.7437581809256</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L41" t="n">
         <v>205.4605081597692</v>
@@ -37795,7 +37795,7 @@
         <v>240.9932940167667</v>
       </c>
       <c r="P41" t="n">
-        <v>170.8327050492732</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="Q41" t="n">
         <v>79.62890699279998</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.39410934381881</v>
+        <v>14.49988786220601</v>
       </c>
       <c r="K42" t="n">
-        <v>368.1921222761615</v>
+        <v>103.7268852635829</v>
       </c>
       <c r="L42" t="n">
         <v>186.2640435408557</v>
@@ -37871,13 +37871,13 @@
         <v>257.738334063439</v>
       </c>
       <c r="O42" t="n">
-        <v>213.3359848228948</v>
+        <v>288.618155581237</v>
       </c>
       <c r="P42" t="n">
-        <v>455.7437581809256</v>
+        <v>455.7437581809255</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.97904587815427</v>
+        <v>261.0563336140034</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>225.3561845105977</v>
+        <v>56.25956933852396</v>
       </c>
       <c r="K44" t="n">
-        <v>165.9420525130907</v>
+        <v>135.5695391808753</v>
       </c>
       <c r="L44" t="n">
-        <v>205.4605081597692</v>
+        <v>378.8774167299116</v>
       </c>
       <c r="M44" t="n">
         <v>260.6037340810481</v>
       </c>
       <c r="N44" t="n">
-        <v>455.7437581809256</v>
+        <v>269.4809874551668</v>
       </c>
       <c r="O44" t="n">
         <v>240.9932940167667</v>
@@ -38035,7 +38035,7 @@
         <v>170.8327050492732</v>
       </c>
       <c r="Q44" t="n">
-        <v>79.62890699279998</v>
+        <v>291.9438976527047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>103.7268852635829</v>
       </c>
       <c r="L45" t="n">
-        <v>186.2640435408557</v>
+        <v>455.7437581809254</v>
       </c>
       <c r="M45" t="n">
         <v>236.9137453980213</v>
@@ -38108,13 +38108,13 @@
         <v>257.738334063439</v>
       </c>
       <c r="O45" t="n">
-        <v>288.6181555812372</v>
+        <v>455.7437581809254</v>
       </c>
       <c r="P45" t="n">
-        <v>455.7437581809256</v>
+        <v>229.2157286770162</v>
       </c>
       <c r="Q45" t="n">
-        <v>261.0563336140034</v>
+        <v>50.97904587815427</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
